--- a/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES RAFAEL GRAU - MAMARA.xlsx
+++ b/13.0 FORMATO N°07 INVIERTE PE/FORMATO 7C IES RAFAEL GRAU - MAMARA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JR2020\IOARR 2020\IOARR 2020 -JUNIO CONCLUIDOS\1. IOARR IES RAFAEL GRAU - MAMARA FINAL\13.0 FORMATO N°07 INVIERTE PE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0001\13.0 FORMATO N°07 INVIERTE PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813159B-140D-468F-AE56-8879C7EFD927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCBD9D4-F22C-4E8E-ACCB-9AAEA97F2F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formato 02 OARR" sheetId="1" r:id="rId1"/>
+    <sheet name="Formato 7C IOARR" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 02 OARR'!$A$1:$M$543</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 7C IOARR'!$A$1:$M$543</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1263,7 +1263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,6 +1303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1539,7 @@
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1787,9 +1793,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1919,9 +1922,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2015,6 +2015,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2358,6 +2367,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2657,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C87" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K483" sqref="K483"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C40" zoomScale="70" zoomScaleNormal="51" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2680,52 +2695,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="215" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="217"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="218"/>
     </row>
     <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="219" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="221"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="222"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="223" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -2759,18 +2774,18 @@
     </row>
     <row r="8" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="257" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="155"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="153"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
@@ -2872,11 +2887,11 @@
       <c r="D15" s="79"/>
       <c r="E15" s="30"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2903,9 +2918,9 @@
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2915,11 +2930,11 @@
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2929,15 +2944,15 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="89"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="91" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2947,11 +2962,11 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="89"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="90"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2961,15 +2976,15 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="89"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="91" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="F21" s="90"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2979,11 +2994,11 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="89"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="90"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2993,15 +3008,15 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="91" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="F23" s="143"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -3011,11 +3026,11 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="89"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3025,15 +3040,15 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="89"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="91" t="s">
+      <c r="D25" s="85"/>
+      <c r="E25" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3043,11 +3058,11 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3057,76 +3072,76 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="89"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="G27" s="259" t="s">
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="G27" s="260" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="259"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
-      <c r="L27" s="156"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="260"/>
+      <c r="K27" s="260"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="80"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="89"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
       <c r="N28" s="80"/>
     </row>
     <row r="29" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="89"/>
-      <c r="C29" s="224" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="G29" s="144" t="s">
+      <c r="D29" s="225"/>
+      <c r="E29" s="225"/>
+      <c r="G29" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="260" t="s">
+      <c r="H29" s="261" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="262"/>
+      <c r="I29" s="262"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="262"/>
+      <c r="M29" s="263"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="89"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="B31" s="89"/>
-      <c r="C31" s="278" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="281" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="278"/>
-      <c r="E31" s="279"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="282"/>
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3139,33 +3154,33 @@
       <c r="I31" s="84" t="s">
         <v>333</v>
       </c>
-      <c r="J31" s="131" t="s">
+      <c r="J31" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="135">
+      <c r="K31" s="133">
         <v>1</v>
       </c>
-      <c r="L31" s="157"/>
+      <c r="L31" s="155"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="90"/>
+      <c r="N31" s="89"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="89"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="62"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-    </row>
-    <row r="33" spans="2:14" s="94" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="93"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+    </row>
+    <row r="33" spans="2:14" s="93" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="92"/>
       <c r="C33" s="68" t="s">
         <v>279</v>
       </c>
@@ -3174,7 +3189,7 @@
       <c r="F33" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="132">
+      <c r="G33" s="130">
         <v>1</v>
       </c>
       <c r="H33" s="63"/>
@@ -3185,8 +3200,8 @@
       <c r="M33" s="63"/>
       <c r="N33" s="63"/>
     </row>
-    <row r="34" spans="2:14" s="94" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="93"/>
+    <row r="34" spans="2:14" s="93" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="92"/>
       <c r="C34" s="69" t="s">
         <v>303</v>
       </c>
@@ -3197,13 +3212,13 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="63"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="89"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
       <c r="E35" s="65"/>
@@ -3212,9 +3227,9 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="N35" s="98"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="N35" s="97"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
@@ -3235,32 +3250,32 @@
         <v>19</v>
       </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-    </row>
-    <row r="39" spans="2:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+    </row>
+    <row r="39" spans="2:14" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
@@ -3287,12 +3302,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="253" t="s">
+      <c r="H40" s="254" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="254"/>
-      <c r="J40" s="254"/>
-      <c r="K40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="255"/>
+      <c r="K40" s="256"/>
       <c r="L40" s="20"/>
       <c r="M40" s="79"/>
     </row>
@@ -3305,12 +3320,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="253" t="s">
+      <c r="H41" s="254" t="s">
         <v>311</v>
       </c>
-      <c r="I41" s="254"/>
-      <c r="J41" s="254"/>
-      <c r="K41" s="255"/>
+      <c r="I41" s="255"/>
+      <c r="J41" s="255"/>
+      <c r="K41" s="256"/>
       <c r="L41" s="20"/>
       <c r="M41" s="79"/>
     </row>
@@ -3323,12 +3338,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="253" t="s">
+      <c r="H42" s="254" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="254"/>
-      <c r="J42" s="254"/>
-      <c r="K42" s="255"/>
+      <c r="I42" s="255"/>
+      <c r="J42" s="255"/>
+      <c r="K42" s="256"/>
       <c r="L42" s="20"/>
       <c r="M42" s="79"/>
     </row>
@@ -3341,30 +3356,30 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="253" t="s">
+      <c r="H43" s="254" t="s">
         <v>325</v>
       </c>
-      <c r="I43" s="254"/>
-      <c r="J43" s="254"/>
-      <c r="K43" s="255"/>
+      <c r="I43" s="255"/>
+      <c r="J43" s="255"/>
+      <c r="K43" s="256"/>
       <c r="L43" s="20"/>
       <c r="M43" s="79"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="141"/>
-    </row>
-    <row r="45" spans="2:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="139"/>
+    </row>
+    <row r="45" spans="2:14" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="58"/>
       <c r="C45" s="79"/>
       <c r="D45" s="79"/>
@@ -3377,7 +3392,7 @@
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
     </row>
-    <row r="46" spans="2:14" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="15" t="s">
         <v>26</v>
       </c>
@@ -3404,12 +3419,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="253" t="s">
+      <c r="H47" s="254" t="s">
         <v>310</v>
       </c>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="255"/>
+      <c r="I47" s="255"/>
+      <c r="J47" s="255"/>
+      <c r="K47" s="256"/>
       <c r="L47" s="20"/>
       <c r="M47" s="79"/>
     </row>
@@ -3422,12 +3437,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="253" t="s">
+      <c r="H48" s="254" t="s">
         <v>311</v>
       </c>
-      <c r="I48" s="254"/>
-      <c r="J48" s="254"/>
-      <c r="K48" s="255"/>
+      <c r="I48" s="255"/>
+      <c r="J48" s="255"/>
+      <c r="K48" s="256"/>
       <c r="L48" s="20"/>
       <c r="M48" s="79"/>
     </row>
@@ -3440,13 +3455,13 @@
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="250" t="s">
+      <c r="H49" s="251" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="251"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="252"/>
-      <c r="L49" s="151"/>
+      <c r="I49" s="252"/>
+      <c r="J49" s="252"/>
+      <c r="K49" s="253"/>
+      <c r="L49" s="149"/>
       <c r="M49" s="79"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.3">
@@ -3458,20 +3473,20 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="161" t="s">
+      <c r="H50" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="140"/>
-    </row>
-    <row r="51" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
+    </row>
+    <row r="51" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="58"/>
       <c r="C51" s="79"/>
       <c r="D51" s="79"/>
@@ -3485,7 +3500,7 @@
       <c r="L51" s="19"/>
       <c r="M51" s="79"/>
     </row>
-    <row r="52" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="15" t="s">
         <v>32</v>
       </c>
@@ -3512,12 +3527,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="253" t="s">
+      <c r="H53" s="254" t="s">
         <v>310</v>
       </c>
-      <c r="I53" s="254"/>
-      <c r="J53" s="254"/>
-      <c r="K53" s="255"/>
+      <c r="I53" s="255"/>
+      <c r="J53" s="255"/>
+      <c r="K53" s="256"/>
       <c r="L53" s="20"/>
       <c r="M53" s="79"/>
     </row>
@@ -3530,12 +3545,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="170" t="s">
+      <c r="H54" s="171" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="172"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="173"/>
       <c r="L54" s="20"/>
       <c r="M54" s="79"/>
     </row>
@@ -3548,18 +3563,18 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="161" t="s">
+      <c r="H55" s="162" t="s">
         <v>314</v>
       </c>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="158"/>
-      <c r="M55" s="140"/>
-      <c r="N55" s="140"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="140"/>
-      <c r="Q55" s="140"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="138"/>
+      <c r="P55" s="138"/>
+      <c r="Q55" s="138"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="18"/>
@@ -3570,34 +3585,34 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="162" t="s">
+      <c r="H56" s="163" t="s">
         <v>315</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="140"/>
-      <c r="N56" s="140"/>
-      <c r="O56" s="140"/>
-      <c r="P56" s="140"/>
-      <c r="Q56" s="140"/>
-    </row>
-    <row r="57" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="138"/>
+      <c r="Q56" s="138"/>
+    </row>
+    <row r="57" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="134"/>
-    </row>
-    <row r="58" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="132"/>
+    </row>
+    <row r="58" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="58" t="s">
         <v>36</v>
       </c>
@@ -3624,20 +3639,20 @@
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="137" t="s">
+      <c r="H59" s="135" t="s">
         <v>316</v>
       </c>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="139"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="140"/>
-      <c r="Q59" s="140"/>
-    </row>
-    <row r="60" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="138"/>
+      <c r="Q59" s="138"/>
+    </row>
+    <row r="60" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="58"/>
       <c r="C60" s="20"/>
       <c r="D60" s="80"/>
@@ -3648,143 +3663,143 @@
       <c r="I60" s="80"/>
       <c r="J60" s="80"/>
       <c r="K60" s="80"/>
-      <c r="L60" s="150"/>
+      <c r="L60" s="148"/>
       <c r="M60" s="80"/>
     </row>
-    <row r="61" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="14"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-    </row>
-    <row r="62" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="98"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+    </row>
+    <row r="62" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="58"/>
       <c r="C62" s="20"/>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
       <c r="F62" s="80"/>
-      <c r="G62" s="101"/>
+      <c r="G62" s="100"/>
       <c r="H62" s="80"/>
       <c r="I62" s="80"/>
       <c r="J62" s="80"/>
       <c r="K62" s="80"/>
-      <c r="L62" s="150"/>
+      <c r="L62" s="148"/>
       <c r="M62" s="80"/>
     </row>
-    <row r="63" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-    </row>
-    <row r="64" spans="2:17" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-    </row>
-    <row r="65" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+    </row>
+    <row r="64" spans="2:17" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+    </row>
+    <row r="65" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="58"/>
       <c r="C65" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="145" t="s">
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="143" t="s">
         <v>332</v>
       </c>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-    </row>
-    <row r="66" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+    </row>
+    <row r="66" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="58"/>
       <c r="C66" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-    </row>
-    <row r="67" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+    </row>
+    <row r="67" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="58"/>
       <c r="C67" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-    </row>
-    <row r="68" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+    </row>
+    <row r="68" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="58"/>
       <c r="C68" s="79"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
-      <c r="M68" s="90"/>
-    </row>
-    <row r="69" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+    </row>
+    <row r="69" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="58"/>
       <c r="C69" s="79" t="s">
         <v>45</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
-      <c r="F69" s="137" t="s">
+      <c r="F69" s="135" t="s">
         <v>336</v>
       </c>
       <c r="G69" s="73"/>
@@ -3794,54 +3809,54 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="58"/>
       <c r="C70" s="79"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-    </row>
-    <row r="71" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+    </row>
+    <row r="71" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="58"/>
       <c r="C71" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90" t="str">
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89" t="str">
         <f>LOWER(C69)</f>
         <v xml:space="preserve">nombre de la unidad productora de bienes y/o servicios </v>
       </c>
-      <c r="J71" s="90"/>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="90"/>
-    </row>
-    <row r="72" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+    </row>
+    <row r="72" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="58"/>
       <c r="C72" s="79"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="90"/>
-    </row>
-    <row r="73" spans="2:13" s="97" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+    </row>
+    <row r="73" spans="2:13" s="96" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="B73" s="58"/>
       <c r="C73" s="75" t="s">
         <v>47</v>
@@ -3855,17 +3870,17 @@
       <c r="F73" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="203" t="s">
+      <c r="G73" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="204"/>
-      <c r="I73" s="205"/>
-      <c r="J73" s="90"/>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="90"/>
-    </row>
-    <row r="74" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="205"/>
+      <c r="I73" s="206"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+    </row>
+    <row r="74" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="58"/>
       <c r="C74" s="30" t="s">
         <v>317</v>
@@ -3879,17 +3894,17 @@
       <c r="F74" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="200" t="s">
+      <c r="G74" s="201" t="s">
         <v>338</v>
       </c>
-      <c r="H74" s="201"/>
-      <c r="I74" s="202"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="90"/>
-      <c r="M74" s="90"/>
-    </row>
-    <row r="75" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="202"/>
+      <c r="I74" s="203"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="89"/>
+      <c r="M74" s="89"/>
+    </row>
+    <row r="75" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="58"/>
       <c r="C75" s="79"/>
       <c r="D75" s="80"/>
@@ -3900,10 +3915,10 @@
       <c r="I75" s="80"/>
       <c r="J75" s="80"/>
       <c r="K75" s="80"/>
-      <c r="L75" s="150"/>
+      <c r="L75" s="148"/>
       <c r="M75" s="80"/>
     </row>
-    <row r="76" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="58"/>
       <c r="C76" s="80" t="s">
         <v>52</v>
@@ -3916,10 +3931,10 @@
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
       <c r="K76" s="80"/>
-      <c r="L76" s="150"/>
+      <c r="L76" s="148"/>
       <c r="M76" s="80"/>
     </row>
-    <row r="77" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="58"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -3930,10 +3945,10 @@
       <c r="I77" s="80"/>
       <c r="J77" s="80"/>
       <c r="K77" s="80"/>
-      <c r="L77" s="150"/>
+      <c r="L77" s="148"/>
       <c r="M77" s="80"/>
     </row>
-    <row r="78" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="58"/>
       <c r="C78" s="19" t="s">
         <v>53</v>
@@ -3946,10 +3961,10 @@
       <c r="I78" s="80"/>
       <c r="J78" s="80"/>
       <c r="K78" s="80"/>
-      <c r="L78" s="150"/>
+      <c r="L78" s="148"/>
       <c r="M78" s="80"/>
     </row>
-    <row r="79" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="58"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -3960,10 +3975,10 @@
       <c r="I79" s="80"/>
       <c r="J79" s="80"/>
       <c r="K79" s="80"/>
-      <c r="L79" s="150"/>
+      <c r="L79" s="148"/>
       <c r="M79" s="80"/>
     </row>
-    <row r="80" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="58"/>
       <c r="C80" s="37" t="s">
         <v>260</v>
@@ -3976,10 +3991,10 @@
       <c r="I80" s="80"/>
       <c r="J80" s="80"/>
       <c r="K80" s="80"/>
-      <c r="L80" s="150"/>
+      <c r="L80" s="148"/>
       <c r="M80" s="80"/>
     </row>
-    <row r="81" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="58"/>
       <c r="C81" s="79"/>
       <c r="D81" s="80"/>
@@ -3990,10 +4005,10 @@
       <c r="I81" s="80"/>
       <c r="J81" s="80"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="150"/>
+      <c r="L81" s="148"/>
       <c r="M81" s="80"/>
     </row>
-    <row r="82" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="15" t="s">
         <v>54</v>
       </c>
@@ -4008,24 +4023,24 @@
       <c r="I82" s="80"/>
       <c r="J82" s="80"/>
       <c r="K82" s="80"/>
-      <c r="L82" s="150"/>
+      <c r="L82" s="148"/>
       <c r="M82" s="80"/>
     </row>
-    <row r="83" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="15"/>
       <c r="C83" s="79"/>
       <c r="D83" s="80"/>
-      <c r="E83" s="267" t="s">
+      <c r="E83" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="F83" s="267"/>
+      <c r="F83" s="268"/>
       <c r="I83" s="80"/>
       <c r="J83" s="80"/>
       <c r="K83" s="80"/>
-      <c r="L83" s="150"/>
+      <c r="L83" s="148"/>
       <c r="M83" s="80"/>
     </row>
-    <row r="84" spans="2:13" s="97" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" s="96" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="B84" s="58"/>
       <c r="C84" s="77" t="s">
         <v>56</v>
@@ -4045,48 +4060,48 @@
       <c r="H84" s="22"/>
       <c r="I84" s="76"/>
       <c r="K84" s="80"/>
-      <c r="L84" s="150"/>
+      <c r="L84" s="148"/>
       <c r="M84" s="80"/>
     </row>
-    <row r="85" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="58"/>
-      <c r="C85" s="103" t="s">
+      <c r="C85" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="103" t="s">
+      <c r="D85" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="E85" s="103" t="s">
+      <c r="E85" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="F85" s="103" t="s">
+      <c r="F85" s="102" t="s">
         <v>320</v>
       </c>
-      <c r="G85" s="104" t="s">
+      <c r="G85" s="103" t="s">
         <v>321</v>
       </c>
       <c r="H85" s="80"/>
       <c r="I85" s="80"/>
       <c r="J85" s="80"/>
       <c r="K85" s="80"/>
-      <c r="L85" s="150"/>
+      <c r="L85" s="148"/>
       <c r="M85" s="80"/>
     </row>
-    <row r="86" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="58"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="104"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="103"/>
       <c r="H86" s="80"/>
       <c r="I86" s="80"/>
       <c r="J86" s="80"/>
       <c r="K86" s="80"/>
-      <c r="L86" s="150"/>
+      <c r="L86" s="148"/>
       <c r="M86" s="80"/>
     </row>
-    <row r="87" spans="2:13" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" s="96" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="58"/>
       <c r="C87" s="79" t="s">
         <v>61</v>
@@ -4099,26 +4114,26 @@
       <c r="I87" s="80"/>
       <c r="J87" s="80"/>
       <c r="K87" s="80"/>
-      <c r="L87" s="150"/>
+      <c r="L87" s="148"/>
       <c r="M87" s="80"/>
     </row>
-    <row r="88" spans="2:13" s="97" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="58"/>
-      <c r="C88" s="168" t="s">
+      <c r="C88" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="168"/>
-      <c r="E88" s="168"/>
-      <c r="F88" s="168"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="168"/>
-      <c r="I88" s="168"/>
-      <c r="J88" s="168"/>
-      <c r="K88" s="168"/>
-      <c r="L88" s="154"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
+      <c r="F88" s="169"/>
+      <c r="G88" s="169"/>
+      <c r="H88" s="169"/>
+      <c r="I88" s="169"/>
+      <c r="J88" s="169"/>
+      <c r="K88" s="169"/>
+      <c r="L88" s="152"/>
       <c r="M88" s="80"/>
     </row>
-    <row r="89" spans="2:13" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="58"/>
       <c r="C89" s="23"/>
       <c r="D89" s="24"/>
@@ -4129,10 +4144,10 @@
       <c r="I89" s="80"/>
       <c r="J89" s="80"/>
       <c r="K89" s="80"/>
-      <c r="L89" s="150"/>
+      <c r="L89" s="148"/>
       <c r="M89" s="80"/>
     </row>
-    <row r="90" spans="2:13" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" s="96" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="58"/>
       <c r="C90" s="23"/>
       <c r="D90" s="24"/>
@@ -4143,26 +4158,26 @@
       <c r="I90" s="80"/>
       <c r="J90" s="80"/>
       <c r="K90" s="80"/>
-      <c r="L90" s="150"/>
+      <c r="L90" s="148"/>
       <c r="M90" s="80"/>
     </row>
-    <row r="91" spans="2:13" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C91" s="14"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="99"/>
-      <c r="M91" s="99"/>
-    </row>
-    <row r="92" spans="2:13" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="98"/>
+      <c r="J91" s="98"/>
+      <c r="K91" s="98"/>
+      <c r="L91" s="98"/>
+      <c r="M91" s="98"/>
+    </row>
+    <row r="92" spans="2:13" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="58"/>
       <c r="C92" s="79"/>
       <c r="D92" s="80"/>
@@ -4173,10 +4188,10 @@
       <c r="I92" s="80"/>
       <c r="J92" s="80"/>
       <c r="K92" s="80"/>
-      <c r="L92" s="150"/>
+      <c r="L92" s="148"/>
       <c r="M92" s="80"/>
     </row>
-    <row r="93" spans="2:13" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" s="96" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="15" t="s">
         <v>63</v>
       </c>
@@ -4191,7 +4206,7 @@
       <c r="I93" s="79"/>
       <c r="J93" s="79"/>
       <c r="K93" s="79"/>
-      <c r="L93" s="149"/>
+      <c r="L93" s="147"/>
       <c r="M93" s="79"/>
     </row>
     <row r="94" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4205,7 +4220,7 @@
       <c r="I94" s="79"/>
       <c r="J94" s="79"/>
       <c r="K94" s="79"/>
-      <c r="L94" s="149"/>
+      <c r="L94" s="147"/>
       <c r="M94" s="79"/>
     </row>
     <row r="95" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4243,22 +4258,22 @@
       <c r="C97" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="103"/>
+      <c r="D97" s="102"/>
       <c r="E97" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F97" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="G97" s="105"/>
-      <c r="H97" s="106"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="105"/>
       <c r="I97" s="18" t="s">
         <v>68</v>
       </c>
       <c r="J97" s="79"/>
       <c r="K97" s="79"/>
-      <c r="L97" s="149"/>
-      <c r="M97" s="106"/>
+      <c r="L97" s="147"/>
+      <c r="M97" s="105"/>
     </row>
     <row r="98" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="21"/>
@@ -4271,7 +4286,7 @@
       <c r="I98" s="79"/>
       <c r="J98" s="79"/>
       <c r="K98" s="79"/>
-      <c r="L98" s="149"/>
+      <c r="L98" s="147"/>
       <c r="M98" s="79"/>
     </row>
     <row r="99" spans="2:13" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4279,17 +4294,17 @@
       <c r="C99" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="103"/>
+      <c r="D99" s="102"/>
       <c r="E99" s="67"/>
-      <c r="F99" s="195" t="s">
+      <c r="F99" s="196" t="s">
         <v>280</v>
       </c>
-      <c r="G99" s="196"/>
-      <c r="H99" s="107"/>
+      <c r="G99" s="197"/>
+      <c r="H99" s="106"/>
       <c r="I99" s="79"/>
       <c r="J99" s="79"/>
       <c r="K99" s="79"/>
-      <c r="L99" s="149"/>
+      <c r="L99" s="147"/>
       <c r="M99" s="79"/>
     </row>
     <row r="100" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4341,15 +4356,15 @@
       <c r="C103" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D103" s="103"/>
+      <c r="D103" s="102"/>
       <c r="E103" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F103" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="G103" s="105"/>
-      <c r="H103" s="106"/>
+      <c r="G103" s="104"/>
+      <c r="H103" s="105"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
@@ -4375,7 +4390,7 @@
       <c r="C105" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="103"/>
+      <c r="D105" s="102"/>
       <c r="E105" s="79"/>
       <c r="F105" s="79"/>
       <c r="G105" s="79"/>
@@ -4445,7 +4460,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="80"/>
       <c r="K109" s="80"/>
-      <c r="L109" s="150"/>
+      <c r="L109" s="148"/>
       <c r="M109" s="80"/>
     </row>
     <row r="110" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4459,23 +4474,23 @@
       <c r="I110" s="25"/>
       <c r="J110" s="80"/>
       <c r="K110" s="80"/>
-      <c r="L110" s="150"/>
+      <c r="L110" s="148"/>
       <c r="M110" s="80"/>
     </row>
     <row r="111" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="58"/>
-      <c r="C111" s="241" t="s">
+      <c r="C111" s="242" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="241"/>
-      <c r="E111" s="241"/>
-      <c r="F111" s="241"/>
-      <c r="G111" s="242"/>
+      <c r="D111" s="242"/>
+      <c r="E111" s="242"/>
+      <c r="F111" s="242"/>
+      <c r="G111" s="243"/>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80"/>
-      <c r="L111" s="150"/>
+      <c r="L111" s="148"/>
       <c r="M111" s="80"/>
     </row>
     <row r="112" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4485,27 +4500,27 @@
       <c r="E112" s="79"/>
       <c r="F112" s="79"/>
       <c r="G112" s="79"/>
-      <c r="H112" s="243"/>
-      <c r="I112" s="243"/>
+      <c r="H112" s="244"/>
+      <c r="I112" s="244"/>
       <c r="J112" s="80"/>
       <c r="K112" s="80"/>
-      <c r="L112" s="150"/>
+      <c r="L112" s="148"/>
       <c r="M112" s="80"/>
     </row>
     <row r="113" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="58"/>
-      <c r="C113" s="241" t="s">
+      <c r="C113" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="242"/>
+      <c r="D113" s="242"/>
+      <c r="E113" s="242"/>
+      <c r="F113" s="242"/>
+      <c r="G113" s="243"/>
       <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="80"/>
       <c r="K113" s="80"/>
-      <c r="L113" s="150"/>
+      <c r="L113" s="148"/>
       <c r="M113" s="80"/>
     </row>
     <row r="114" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4519,7 +4534,7 @@
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
       <c r="K114" s="80"/>
-      <c r="L114" s="150"/>
+      <c r="L114" s="148"/>
       <c r="M114" s="80"/>
     </row>
     <row r="115" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -4527,16 +4542,16 @@
         <v>76</v>
       </c>
       <c r="C115" s="14"/>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="99"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="99"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="99"/>
-      <c r="L115" s="99"/>
-      <c r="M115" s="99"/>
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="98"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="98"/>
+      <c r="L115" s="98"/>
+      <c r="M115" s="98"/>
     </row>
     <row r="116" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
@@ -4632,47 +4647,47 @@
     </row>
     <row r="122" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="58"/>
-      <c r="C122" s="244" t="s">
+      <c r="C122" s="245" t="s">
         <v>281</v>
       </c>
-      <c r="D122" s="245"/>
-      <c r="E122" s="245"/>
-      <c r="F122" s="245"/>
-      <c r="G122" s="245"/>
-      <c r="H122" s="245"/>
-      <c r="I122" s="245"/>
-      <c r="J122" s="245"/>
-      <c r="K122" s="245"/>
-      <c r="L122" s="245"/>
-      <c r="M122" s="246"/>
+      <c r="D122" s="246"/>
+      <c r="E122" s="246"/>
+      <c r="F122" s="246"/>
+      <c r="G122" s="246"/>
+      <c r="H122" s="246"/>
+      <c r="I122" s="246"/>
+      <c r="J122" s="246"/>
+      <c r="K122" s="246"/>
+      <c r="L122" s="246"/>
+      <c r="M122" s="247"/>
     </row>
     <row r="123" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="58"/>
-      <c r="C123" s="197"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="198"/>
-      <c r="F123" s="198"/>
-      <c r="G123" s="198"/>
-      <c r="H123" s="198"/>
-      <c r="I123" s="198"/>
-      <c r="J123" s="198"/>
-      <c r="K123" s="198"/>
-      <c r="L123" s="198"/>
-      <c r="M123" s="199"/>
+      <c r="C123" s="198"/>
+      <c r="D123" s="199"/>
+      <c r="E123" s="199"/>
+      <c r="F123" s="199"/>
+      <c r="G123" s="199"/>
+      <c r="H123" s="199"/>
+      <c r="I123" s="199"/>
+      <c r="J123" s="199"/>
+      <c r="K123" s="199"/>
+      <c r="L123" s="199"/>
+      <c r="M123" s="200"/>
     </row>
     <row r="124" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="58"/>
-      <c r="C124" s="247"/>
-      <c r="D124" s="248"/>
-      <c r="E124" s="248"/>
-      <c r="F124" s="248"/>
-      <c r="G124" s="248"/>
-      <c r="H124" s="248"/>
-      <c r="I124" s="248"/>
-      <c r="J124" s="248"/>
-      <c r="K124" s="248"/>
-      <c r="L124" s="248"/>
-      <c r="M124" s="249"/>
+      <c r="C124" s="248"/>
+      <c r="D124" s="249"/>
+      <c r="E124" s="249"/>
+      <c r="F124" s="249"/>
+      <c r="G124" s="249"/>
+      <c r="H124" s="249"/>
+      <c r="I124" s="249"/>
+      <c r="J124" s="249"/>
+      <c r="K124" s="249"/>
+      <c r="L124" s="249"/>
+      <c r="M124" s="250"/>
     </row>
     <row r="125" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="58"/>
@@ -4706,19 +4721,19 @@
     </row>
     <row r="127" spans="2:13" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="58"/>
-      <c r="C127" s="234" t="s">
+      <c r="C127" s="235" t="s">
         <v>282</v>
       </c>
-      <c r="D127" s="235"/>
-      <c r="E127" s="235"/>
-      <c r="F127" s="235"/>
-      <c r="G127" s="235"/>
-      <c r="H127" s="235"/>
-      <c r="I127" s="235"/>
-      <c r="J127" s="235"/>
-      <c r="K127" s="235"/>
-      <c r="L127" s="235"/>
-      <c r="M127" s="236"/>
+      <c r="D127" s="236"/>
+      <c r="E127" s="236"/>
+      <c r="F127" s="236"/>
+      <c r="G127" s="236"/>
+      <c r="H127" s="236"/>
+      <c r="I127" s="236"/>
+      <c r="J127" s="236"/>
+      <c r="K127" s="236"/>
+      <c r="L127" s="236"/>
+      <c r="M127" s="237"/>
     </row>
     <row r="128" spans="2:13" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="58"/>
@@ -4752,19 +4767,19 @@
     </row>
     <row r="130" spans="2:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="58"/>
-      <c r="C130" s="237" t="s">
+      <c r="C130" s="238" t="s">
         <v>283</v>
       </c>
-      <c r="D130" s="238"/>
-      <c r="E130" s="238"/>
-      <c r="F130" s="238"/>
-      <c r="G130" s="238"/>
-      <c r="H130" s="238"/>
-      <c r="I130" s="238"/>
-      <c r="J130" s="238"/>
-      <c r="K130" s="238"/>
-      <c r="L130" s="238"/>
-      <c r="M130" s="239"/>
+      <c r="D130" s="239"/>
+      <c r="E130" s="239"/>
+      <c r="F130" s="239"/>
+      <c r="G130" s="239"/>
+      <c r="H130" s="239"/>
+      <c r="I130" s="239"/>
+      <c r="J130" s="239"/>
+      <c r="K130" s="239"/>
+      <c r="L130" s="239"/>
+      <c r="M130" s="240"/>
     </row>
     <row r="131" spans="2:13" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="58"/>
@@ -4963,19 +4978,19 @@
     </row>
     <row r="144" spans="2:13" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="58"/>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="241" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="240"/>
-      <c r="E144" s="240"/>
-      <c r="F144" s="240"/>
-      <c r="G144" s="240"/>
-      <c r="H144" s="240"/>
-      <c r="I144" s="240"/>
-      <c r="J144" s="240"/>
-      <c r="K144" s="240"/>
-      <c r="L144" s="240"/>
-      <c r="M144" s="240"/>
+      <c r="D144" s="241"/>
+      <c r="E144" s="241"/>
+      <c r="F144" s="241"/>
+      <c r="G144" s="241"/>
+      <c r="H144" s="241"/>
+      <c r="I144" s="241"/>
+      <c r="J144" s="241"/>
+      <c r="K144" s="241"/>
+      <c r="L144" s="241"/>
+      <c r="M144" s="241"/>
     </row>
     <row r="145" spans="2:13" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="58"/>
@@ -4993,12 +5008,12 @@
     </row>
     <row r="146" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="18"/>
-      <c r="C146" s="165" t="s">
+      <c r="C146" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="D146" s="165"/>
-      <c r="E146" s="165"/>
-      <c r="H146" s="106"/>
+      <c r="D146" s="166"/>
+      <c r="E146" s="166"/>
+      <c r="H146" s="105"/>
       <c r="I146" s="18" t="s">
         <v>92</v>
       </c>
@@ -5021,12 +5036,12 @@
     </row>
     <row r="148" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="18"/>
-      <c r="C148" s="165" t="s">
+      <c r="C148" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="165"/>
-      <c r="E148" s="165"/>
-      <c r="H148" s="106"/>
+      <c r="D148" s="166"/>
+      <c r="E148" s="166"/>
+      <c r="H148" s="105"/>
       <c r="I148" s="18" t="s">
         <v>94</v>
       </c>
@@ -5049,12 +5064,12 @@
     </row>
     <row r="150" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="18"/>
-      <c r="C150" s="165" t="s">
+      <c r="C150" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="D150" s="165"/>
-      <c r="E150" s="165"/>
-      <c r="H150" s="106"/>
+      <c r="D150" s="166"/>
+      <c r="E150" s="166"/>
+      <c r="H150" s="105"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
@@ -5075,13 +5090,13 @@
     </row>
     <row r="152" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="18"/>
-      <c r="C152" s="165" t="s">
+      <c r="C152" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="D152" s="165"/>
-      <c r="E152" s="165"/>
-      <c r="F152" s="165"/>
-      <c r="H152" s="106"/>
+      <c r="D152" s="166"/>
+      <c r="E152" s="166"/>
+      <c r="F152" s="166"/>
+      <c r="H152" s="105"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
@@ -5103,14 +5118,14 @@
     </row>
     <row r="154" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="18"/>
-      <c r="C154" s="165" t="s">
+      <c r="C154" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="D154" s="165"/>
-      <c r="E154" s="165"/>
-      <c r="F154" s="165"/>
-      <c r="G154" s="166"/>
-      <c r="H154" s="106"/>
+      <c r="D154" s="166"/>
+      <c r="E154" s="166"/>
+      <c r="F154" s="166"/>
+      <c r="G154" s="167"/>
+      <c r="H154" s="105"/>
       <c r="I154" s="25"/>
     </row>
     <row r="155" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
@@ -5223,47 +5238,47 @@
     </row>
     <row r="162" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="18"/>
-      <c r="C162" s="108"/>
-      <c r="D162" s="109"/>
-      <c r="E162" s="109"/>
-      <c r="F162" s="109"/>
-      <c r="G162" s="109"/>
-      <c r="H162" s="109"/>
-      <c r="I162" s="109"/>
-      <c r="J162" s="109"/>
-      <c r="K162" s="109"/>
-      <c r="L162" s="109"/>
-      <c r="M162" s="110"/>
+      <c r="C162" s="107"/>
+      <c r="D162" s="108"/>
+      <c r="E162" s="108"/>
+      <c r="F162" s="108"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="108"/>
+      <c r="I162" s="108"/>
+      <c r="J162" s="108"/>
+      <c r="K162" s="108"/>
+      <c r="L162" s="108"/>
+      <c r="M162" s="109"/>
     </row>
     <row r="163" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="18"/>
-      <c r="C163" s="263" t="s">
+      <c r="C163" s="264" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="264"/>
-      <c r="E163" s="264"/>
-      <c r="F163" s="264"/>
-      <c r="G163" s="264"/>
-      <c r="H163" s="264"/>
-      <c r="I163" s="264"/>
-      <c r="J163" s="264"/>
-      <c r="K163" s="264"/>
-      <c r="L163" s="264"/>
-      <c r="M163" s="265"/>
+      <c r="D163" s="265"/>
+      <c r="E163" s="265"/>
+      <c r="F163" s="265"/>
+      <c r="G163" s="265"/>
+      <c r="H163" s="265"/>
+      <c r="I163" s="265"/>
+      <c r="J163" s="265"/>
+      <c r="K163" s="265"/>
+      <c r="L163" s="265"/>
+      <c r="M163" s="266"/>
     </row>
     <row r="164" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="18"/>
-      <c r="C164" s="111"/>
-      <c r="D164" s="112"/>
-      <c r="E164" s="112"/>
-      <c r="F164" s="112"/>
-      <c r="G164" s="112"/>
-      <c r="H164" s="112"/>
-      <c r="I164" s="112"/>
-      <c r="J164" s="112"/>
-      <c r="K164" s="112"/>
-      <c r="L164" s="112"/>
-      <c r="M164" s="113"/>
+      <c r="C164" s="110"/>
+      <c r="D164" s="111"/>
+      <c r="E164" s="111"/>
+      <c r="F164" s="111"/>
+      <c r="G164" s="111"/>
+      <c r="H164" s="111"/>
+      <c r="I164" s="111"/>
+      <c r="J164" s="111"/>
+      <c r="K164" s="111"/>
+      <c r="L164" s="111"/>
+      <c r="M164" s="112"/>
     </row>
     <row r="165" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="18"/>
@@ -5467,14 +5482,14 @@
     </row>
     <row r="180" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="25"/>
-      <c r="C180" s="165" t="s">
+      <c r="C180" s="166" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="165"/>
-      <c r="E180" s="165"/>
-      <c r="F180" s="165"/>
+      <c r="D180" s="166"/>
+      <c r="E180" s="166"/>
+      <c r="F180" s="166"/>
       <c r="G180" s="79"/>
-      <c r="H180" s="103"/>
+      <c r="H180" s="102"/>
       <c r="I180" s="18" t="s">
         <v>94</v>
       </c>
@@ -5499,14 +5514,14 @@
     </row>
     <row r="182" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="25"/>
-      <c r="C182" s="165" t="s">
+      <c r="C182" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="D182" s="165"/>
-      <c r="E182" s="165"/>
-      <c r="F182" s="165"/>
-      <c r="G182" s="166"/>
-      <c r="H182" s="103"/>
+      <c r="D182" s="166"/>
+      <c r="E182" s="166"/>
+      <c r="F182" s="166"/>
+      <c r="G182" s="167"/>
+      <c r="H182" s="102"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
@@ -5536,7 +5551,7 @@
       <c r="E184" s="80"/>
       <c r="F184" s="80"/>
       <c r="G184" s="13"/>
-      <c r="H184" s="103"/>
+      <c r="H184" s="102"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
@@ -5559,14 +5574,14 @@
     </row>
     <row r="186" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="25"/>
-      <c r="C186" s="165" t="s">
+      <c r="C186" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="D186" s="165"/>
-      <c r="E186" s="165"/>
-      <c r="F186" s="165"/>
-      <c r="G186" s="166"/>
-      <c r="H186" s="103"/>
+      <c r="D186" s="166"/>
+      <c r="E186" s="166"/>
+      <c r="F186" s="166"/>
+      <c r="G186" s="167"/>
+      <c r="H186" s="102"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
@@ -5678,79 +5693,79 @@
     </row>
     <row r="194" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="21"/>
-      <c r="C194" s="182" t="s">
+      <c r="C194" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="D194" s="183"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
-      <c r="I194" s="183"/>
-      <c r="J194" s="183"/>
-      <c r="K194" s="183"/>
-      <c r="L194" s="183"/>
-      <c r="M194" s="184"/>
+      <c r="D194" s="184"/>
+      <c r="E194" s="184"/>
+      <c r="F194" s="184"/>
+      <c r="G194" s="184"/>
+      <c r="H194" s="184"/>
+      <c r="I194" s="184"/>
+      <c r="J194" s="184"/>
+      <c r="K194" s="184"/>
+      <c r="L194" s="184"/>
+      <c r="M194" s="185"/>
       <c r="N194" s="21"/>
     </row>
     <row r="195" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="21"/>
-      <c r="C195" s="185"/>
-      <c r="D195" s="186"/>
-      <c r="E195" s="186"/>
-      <c r="F195" s="186"/>
-      <c r="G195" s="186"/>
-      <c r="H195" s="186"/>
-      <c r="I195" s="186"/>
-      <c r="J195" s="186"/>
-      <c r="K195" s="186"/>
-      <c r="L195" s="186"/>
-      <c r="M195" s="187"/>
+      <c r="C195" s="186"/>
+      <c r="D195" s="187"/>
+      <c r="E195" s="187"/>
+      <c r="F195" s="187"/>
+      <c r="G195" s="187"/>
+      <c r="H195" s="187"/>
+      <c r="I195" s="187"/>
+      <c r="J195" s="187"/>
+      <c r="K195" s="187"/>
+      <c r="L195" s="187"/>
+      <c r="M195" s="188"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="21"/>
-      <c r="C196" s="185"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
-      <c r="F196" s="186"/>
-      <c r="G196" s="186"/>
-      <c r="H196" s="186"/>
-      <c r="I196" s="186"/>
-      <c r="J196" s="186"/>
-      <c r="K196" s="186"/>
-      <c r="L196" s="186"/>
-      <c r="M196" s="187"/>
+      <c r="C196" s="186"/>
+      <c r="D196" s="187"/>
+      <c r="E196" s="187"/>
+      <c r="F196" s="187"/>
+      <c r="G196" s="187"/>
+      <c r="H196" s="187"/>
+      <c r="I196" s="187"/>
+      <c r="J196" s="187"/>
+      <c r="K196" s="187"/>
+      <c r="L196" s="187"/>
+      <c r="M196" s="188"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="21"/>
-      <c r="C197" s="185"/>
-      <c r="D197" s="186"/>
-      <c r="E197" s="186"/>
-      <c r="F197" s="186"/>
-      <c r="G197" s="186"/>
-      <c r="H197" s="186"/>
-      <c r="I197" s="186"/>
-      <c r="J197" s="186"/>
-      <c r="K197" s="186"/>
-      <c r="L197" s="186"/>
-      <c r="M197" s="187"/>
+      <c r="C197" s="186"/>
+      <c r="D197" s="187"/>
+      <c r="E197" s="187"/>
+      <c r="F197" s="187"/>
+      <c r="G197" s="187"/>
+      <c r="H197" s="187"/>
+      <c r="I197" s="187"/>
+      <c r="J197" s="187"/>
+      <c r="K197" s="187"/>
+      <c r="L197" s="187"/>
+      <c r="M197" s="188"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="2:14" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="21"/>
-      <c r="C198" s="188"/>
-      <c r="D198" s="189"/>
-      <c r="E198" s="189"/>
-      <c r="F198" s="189"/>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
-      <c r="I198" s="189"/>
-      <c r="J198" s="189"/>
-      <c r="K198" s="189"/>
-      <c r="L198" s="189"/>
-      <c r="M198" s="190"/>
+      <c r="C198" s="189"/>
+      <c r="D198" s="190"/>
+      <c r="E198" s="190"/>
+      <c r="F198" s="190"/>
+      <c r="G198" s="190"/>
+      <c r="H198" s="190"/>
+      <c r="I198" s="190"/>
+      <c r="J198" s="190"/>
+      <c r="K198" s="190"/>
+      <c r="L198" s="190"/>
+      <c r="M198" s="191"/>
       <c r="N198" s="2"/>
     </row>
     <row r="199" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5787,79 +5802,79 @@
     </row>
     <row r="201" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="21"/>
-      <c r="C201" s="182" t="s">
+      <c r="C201" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="D201" s="183"/>
-      <c r="E201" s="183"/>
-      <c r="F201" s="183"/>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
-      <c r="I201" s="183"/>
-      <c r="J201" s="183"/>
-      <c r="K201" s="183"/>
-      <c r="L201" s="183"/>
-      <c r="M201" s="184"/>
+      <c r="D201" s="184"/>
+      <c r="E201" s="184"/>
+      <c r="F201" s="184"/>
+      <c r="G201" s="184"/>
+      <c r="H201" s="184"/>
+      <c r="I201" s="184"/>
+      <c r="J201" s="184"/>
+      <c r="K201" s="184"/>
+      <c r="L201" s="184"/>
+      <c r="M201" s="185"/>
       <c r="N201" s="34"/>
     </row>
     <row r="202" spans="2:14" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="21"/>
-      <c r="C202" s="185"/>
-      <c r="D202" s="186"/>
-      <c r="E202" s="186"/>
-      <c r="F202" s="186"/>
-      <c r="G202" s="186"/>
-      <c r="H202" s="186"/>
-      <c r="I202" s="186"/>
-      <c r="J202" s="186"/>
-      <c r="K202" s="186"/>
-      <c r="L202" s="186"/>
-      <c r="M202" s="187"/>
+      <c r="C202" s="186"/>
+      <c r="D202" s="187"/>
+      <c r="E202" s="187"/>
+      <c r="F202" s="187"/>
+      <c r="G202" s="187"/>
+      <c r="H202" s="187"/>
+      <c r="I202" s="187"/>
+      <c r="J202" s="187"/>
+      <c r="K202" s="187"/>
+      <c r="L202" s="187"/>
+      <c r="M202" s="188"/>
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="2:14" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="21"/>
-      <c r="C203" s="185"/>
-      <c r="D203" s="186"/>
-      <c r="E203" s="186"/>
-      <c r="F203" s="186"/>
-      <c r="G203" s="186"/>
-      <c r="H203" s="186"/>
-      <c r="I203" s="186"/>
-      <c r="J203" s="186"/>
-      <c r="K203" s="186"/>
-      <c r="L203" s="186"/>
-      <c r="M203" s="187"/>
+      <c r="C203" s="186"/>
+      <c r="D203" s="187"/>
+      <c r="E203" s="187"/>
+      <c r="F203" s="187"/>
+      <c r="G203" s="187"/>
+      <c r="H203" s="187"/>
+      <c r="I203" s="187"/>
+      <c r="J203" s="187"/>
+      <c r="K203" s="187"/>
+      <c r="L203" s="187"/>
+      <c r="M203" s="188"/>
       <c r="N203" s="2"/>
     </row>
     <row r="204" spans="2:14" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="21"/>
-      <c r="C204" s="185"/>
-      <c r="D204" s="186"/>
-      <c r="E204" s="186"/>
-      <c r="F204" s="186"/>
-      <c r="G204" s="186"/>
-      <c r="H204" s="186"/>
-      <c r="I204" s="186"/>
-      <c r="J204" s="186"/>
-      <c r="K204" s="186"/>
-      <c r="L204" s="186"/>
-      <c r="M204" s="187"/>
+      <c r="C204" s="186"/>
+      <c r="D204" s="187"/>
+      <c r="E204" s="187"/>
+      <c r="F204" s="187"/>
+      <c r="G204" s="187"/>
+      <c r="H204" s="187"/>
+      <c r="I204" s="187"/>
+      <c r="J204" s="187"/>
+      <c r="K204" s="187"/>
+      <c r="L204" s="187"/>
+      <c r="M204" s="188"/>
       <c r="N204" s="2"/>
     </row>
     <row r="205" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="21"/>
-      <c r="C205" s="188"/>
-      <c r="D205" s="189"/>
-      <c r="E205" s="189"/>
-      <c r="F205" s="189"/>
-      <c r="G205" s="189"/>
-      <c r="H205" s="189"/>
-      <c r="I205" s="189"/>
-      <c r="J205" s="189"/>
-      <c r="K205" s="189"/>
-      <c r="L205" s="189"/>
-      <c r="M205" s="190"/>
+      <c r="C205" s="189"/>
+      <c r="D205" s="190"/>
+      <c r="E205" s="190"/>
+      <c r="F205" s="190"/>
+      <c r="G205" s="190"/>
+      <c r="H205" s="190"/>
+      <c r="I205" s="190"/>
+      <c r="J205" s="190"/>
+      <c r="K205" s="190"/>
+      <c r="L205" s="190"/>
+      <c r="M205" s="191"/>
       <c r="N205" s="2"/>
     </row>
     <row r="206" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6006,49 +6021,49 @@
     </row>
     <row r="215" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="18"/>
-      <c r="C215" s="225" t="s">
+      <c r="C215" s="226" t="s">
         <v>292</v>
       </c>
-      <c r="D215" s="226"/>
-      <c r="E215" s="226"/>
-      <c r="F215" s="226"/>
-      <c r="G215" s="226"/>
-      <c r="H215" s="226"/>
-      <c r="I215" s="226"/>
-      <c r="J215" s="226"/>
-      <c r="K215" s="226"/>
-      <c r="L215" s="226"/>
-      <c r="M215" s="227"/>
+      <c r="D215" s="227"/>
+      <c r="E215" s="227"/>
+      <c r="F215" s="227"/>
+      <c r="G215" s="227"/>
+      <c r="H215" s="227"/>
+      <c r="I215" s="227"/>
+      <c r="J215" s="227"/>
+      <c r="K215" s="227"/>
+      <c r="L215" s="227"/>
+      <c r="M215" s="228"/>
       <c r="N215" s="34"/>
     </row>
     <row r="216" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="18"/>
-      <c r="C216" s="228"/>
-      <c r="D216" s="229"/>
-      <c r="E216" s="229"/>
-      <c r="F216" s="229"/>
-      <c r="G216" s="229"/>
-      <c r="H216" s="229"/>
-      <c r="I216" s="229"/>
-      <c r="J216" s="229"/>
-      <c r="K216" s="229"/>
-      <c r="L216" s="229"/>
-      <c r="M216" s="230"/>
+      <c r="C216" s="229"/>
+      <c r="D216" s="230"/>
+      <c r="E216" s="230"/>
+      <c r="F216" s="230"/>
+      <c r="G216" s="230"/>
+      <c r="H216" s="230"/>
+      <c r="I216" s="230"/>
+      <c r="J216" s="230"/>
+      <c r="K216" s="230"/>
+      <c r="L216" s="230"/>
+      <c r="M216" s="231"/>
       <c r="N216" s="60"/>
     </row>
     <row r="217" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="18"/>
-      <c r="C217" s="231"/>
-      <c r="D217" s="232"/>
-      <c r="E217" s="232"/>
-      <c r="F217" s="232"/>
-      <c r="G217" s="232"/>
-      <c r="H217" s="232"/>
-      <c r="I217" s="232"/>
-      <c r="J217" s="232"/>
-      <c r="K217" s="232"/>
-      <c r="L217" s="232"/>
-      <c r="M217" s="233"/>
+      <c r="C217" s="232"/>
+      <c r="D217" s="233"/>
+      <c r="E217" s="233"/>
+      <c r="F217" s="233"/>
+      <c r="G217" s="233"/>
+      <c r="H217" s="233"/>
+      <c r="I217" s="233"/>
+      <c r="J217" s="233"/>
+      <c r="K217" s="233"/>
+      <c r="L217" s="233"/>
+      <c r="M217" s="234"/>
       <c r="N217" s="60"/>
     </row>
     <row r="218" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
@@ -6083,10 +6098,10 @@
     </row>
     <row r="220" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="18"/>
-      <c r="C220" s="165" t="s">
+      <c r="C220" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="D220" s="165"/>
+      <c r="D220" s="166"/>
       <c r="E220" s="82"/>
       <c r="F220" s="79"/>
       <c r="G220" s="13"/>
@@ -6153,11 +6168,11 @@
     </row>
     <row r="224" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="18"/>
-      <c r="C224" s="114"/>
-      <c r="D224" s="114"/>
-      <c r="E224" s="114"/>
-      <c r="F224" s="115"/>
-      <c r="G224" s="116"/>
+      <c r="C224" s="113"/>
+      <c r="D224" s="113"/>
+      <c r="E224" s="113"/>
+      <c r="F224" s="114"/>
+      <c r="G224" s="115"/>
       <c r="H224" s="25"/>
       <c r="I224" s="25"/>
       <c r="J224" s="25"/>
@@ -6197,61 +6212,61 @@
     </row>
     <row r="227" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="18"/>
-      <c r="C227" s="108"/>
-      <c r="D227" s="109"/>
-      <c r="E227" s="109"/>
-      <c r="F227" s="109"/>
-      <c r="G227" s="109"/>
-      <c r="H227" s="109"/>
-      <c r="I227" s="109"/>
-      <c r="J227" s="109"/>
-      <c r="K227" s="109"/>
-      <c r="L227" s="109"/>
-      <c r="M227" s="110"/>
+      <c r="C227" s="107"/>
+      <c r="D227" s="108"/>
+      <c r="E227" s="108"/>
+      <c r="F227" s="108"/>
+      <c r="G227" s="108"/>
+      <c r="H227" s="108"/>
+      <c r="I227" s="108"/>
+      <c r="J227" s="108"/>
+      <c r="K227" s="108"/>
+      <c r="L227" s="108"/>
+      <c r="M227" s="109"/>
     </row>
     <row r="228" spans="2:15" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="18"/>
-      <c r="C228" s="197" t="s">
+      <c r="C228" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="D228" s="198"/>
-      <c r="E228" s="198"/>
-      <c r="F228" s="198"/>
-      <c r="G228" s="198"/>
-      <c r="H228" s="198"/>
-      <c r="I228" s="198"/>
-      <c r="J228" s="198"/>
-      <c r="K228" s="198"/>
-      <c r="L228" s="198"/>
-      <c r="M228" s="199"/>
+      <c r="D228" s="199"/>
+      <c r="E228" s="199"/>
+      <c r="F228" s="199"/>
+      <c r="G228" s="199"/>
+      <c r="H228" s="199"/>
+      <c r="I228" s="199"/>
+      <c r="J228" s="199"/>
+      <c r="K228" s="199"/>
+      <c r="L228" s="199"/>
+      <c r="M228" s="200"/>
     </row>
     <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="18"/>
-      <c r="C229" s="111"/>
-      <c r="D229" s="112"/>
-      <c r="E229" s="112"/>
-      <c r="F229" s="112"/>
-      <c r="G229" s="112"/>
-      <c r="H229" s="112"/>
-      <c r="I229" s="112"/>
-      <c r="J229" s="112"/>
-      <c r="K229" s="112"/>
-      <c r="L229" s="112"/>
-      <c r="M229" s="113"/>
+      <c r="C229" s="110"/>
+      <c r="D229" s="111"/>
+      <c r="E229" s="111"/>
+      <c r="F229" s="111"/>
+      <c r="G229" s="111"/>
+      <c r="H229" s="111"/>
+      <c r="I229" s="111"/>
+      <c r="J229" s="111"/>
+      <c r="K229" s="111"/>
+      <c r="L229" s="111"/>
+      <c r="M229" s="112"/>
     </row>
     <row r="230" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="18"/>
-      <c r="C230" s="101"/>
-      <c r="D230" s="101"/>
-      <c r="E230" s="101"/>
-      <c r="F230" s="101"/>
-      <c r="G230" s="101"/>
-      <c r="H230" s="101"/>
-      <c r="I230" s="101"/>
-      <c r="J230" s="101"/>
-      <c r="K230" s="101"/>
-      <c r="L230" s="101"/>
-      <c r="M230" s="101"/>
+      <c r="C230" s="100"/>
+      <c r="D230" s="100"/>
+      <c r="E230" s="100"/>
+      <c r="F230" s="100"/>
+      <c r="G230" s="100"/>
+      <c r="H230" s="100"/>
+      <c r="I230" s="100"/>
+      <c r="J230" s="100"/>
+      <c r="K230" s="100"/>
+      <c r="L230" s="100"/>
+      <c r="M230" s="100"/>
     </row>
     <row r="231" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="18"/>
@@ -6264,23 +6279,23 @@
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20"/>
-      <c r="K231" s="101"/>
-      <c r="L231" s="101"/>
-      <c r="M231" s="101"/>
+      <c r="K231" s="100"/>
+      <c r="L231" s="100"/>
+      <c r="M231" s="100"/>
     </row>
     <row r="232" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="18"/>
-      <c r="C232" s="101"/>
-      <c r="D232" s="101"/>
-      <c r="E232" s="101"/>
-      <c r="F232" s="101"/>
-      <c r="G232" s="101"/>
-      <c r="H232" s="101"/>
-      <c r="I232" s="101"/>
-      <c r="J232" s="101"/>
-      <c r="K232" s="101"/>
-      <c r="L232" s="101"/>
-      <c r="M232" s="101"/>
+      <c r="C232" s="100"/>
+      <c r="D232" s="100"/>
+      <c r="E232" s="100"/>
+      <c r="F232" s="100"/>
+      <c r="G232" s="100"/>
+      <c r="H232" s="100"/>
+      <c r="I232" s="100"/>
+      <c r="J232" s="100"/>
+      <c r="K232" s="100"/>
+      <c r="L232" s="100"/>
+      <c r="M232" s="100"/>
     </row>
     <row r="233" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="18"/>
@@ -6332,67 +6347,67 @@
     </row>
     <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="18"/>
-      <c r="C236" s="173" t="s">
+      <c r="C236" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="174"/>
-      <c r="E236" s="174"/>
-      <c r="F236" s="174"/>
-      <c r="G236" s="174"/>
-      <c r="H236" s="174"/>
-      <c r="I236" s="174"/>
-      <c r="J236" s="174"/>
-      <c r="K236" s="174"/>
-      <c r="L236" s="174"/>
-      <c r="M236" s="175"/>
+      <c r="D236" s="175"/>
+      <c r="E236" s="175"/>
+      <c r="F236" s="175"/>
+      <c r="G236" s="175"/>
+      <c r="H236" s="175"/>
+      <c r="I236" s="175"/>
+      <c r="J236" s="175"/>
+      <c r="K236" s="175"/>
+      <c r="L236" s="175"/>
+      <c r="M236" s="176"/>
       <c r="N236" s="34"/>
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="18"/>
-      <c r="C237" s="176"/>
-      <c r="D237" s="177"/>
-      <c r="E237" s="177"/>
-      <c r="F237" s="177"/>
-      <c r="G237" s="177"/>
-      <c r="H237" s="177"/>
-      <c r="I237" s="177"/>
-      <c r="J237" s="177"/>
-      <c r="K237" s="177"/>
-      <c r="L237" s="177"/>
-      <c r="M237" s="178"/>
+      <c r="C237" s="177"/>
+      <c r="D237" s="178"/>
+      <c r="E237" s="178"/>
+      <c r="F237" s="178"/>
+      <c r="G237" s="178"/>
+      <c r="H237" s="178"/>
+      <c r="I237" s="178"/>
+      <c r="J237" s="178"/>
+      <c r="K237" s="178"/>
+      <c r="L237" s="178"/>
+      <c r="M237" s="179"/>
       <c r="N237" s="60"/>
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="18"/>
-      <c r="C238" s="179"/>
-      <c r="D238" s="180"/>
-      <c r="E238" s="180"/>
-      <c r="F238" s="180"/>
-      <c r="G238" s="180"/>
-      <c r="H238" s="180"/>
-      <c r="I238" s="180"/>
-      <c r="J238" s="180"/>
-      <c r="K238" s="180"/>
-      <c r="L238" s="180"/>
-      <c r="M238" s="181"/>
+      <c r="C238" s="180"/>
+      <c r="D238" s="181"/>
+      <c r="E238" s="181"/>
+      <c r="F238" s="181"/>
+      <c r="G238" s="181"/>
+      <c r="H238" s="181"/>
+      <c r="I238" s="181"/>
+      <c r="J238" s="181"/>
+      <c r="K238" s="181"/>
+      <c r="L238" s="181"/>
+      <c r="M238" s="182"/>
       <c r="N238" s="60"/>
       <c r="O238" s="2"/>
     </row>
     <row r="239" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="18"/>
-      <c r="C239" s="101"/>
-      <c r="D239" s="101"/>
-      <c r="E239" s="101"/>
-      <c r="F239" s="101"/>
-      <c r="G239" s="101"/>
-      <c r="H239" s="101"/>
-      <c r="I239" s="101"/>
-      <c r="J239" s="101"/>
-      <c r="K239" s="101"/>
-      <c r="L239" s="101"/>
-      <c r="M239" s="101"/>
+      <c r="C239" s="100"/>
+      <c r="D239" s="100"/>
+      <c r="E239" s="100"/>
+      <c r="F239" s="100"/>
+      <c r="G239" s="100"/>
+      <c r="H239" s="100"/>
+      <c r="I239" s="100"/>
+      <c r="J239" s="100"/>
+      <c r="K239" s="100"/>
+      <c r="L239" s="100"/>
+      <c r="M239" s="100"/>
       <c r="N239" s="60"/>
       <c r="O239" s="2"/>
     </row>
@@ -6451,7 +6466,7 @@
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25"/>
-      <c r="G243" s="103"/>
+      <c r="G243" s="102"/>
       <c r="H243" s="25"/>
       <c r="I243" s="25"/>
       <c r="J243" s="25"/>
@@ -6491,35 +6506,35 @@
     </row>
     <row r="246" spans="2:13" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="18"/>
-      <c r="C246" s="168" t="s">
+      <c r="C246" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="D246" s="168"/>
-      <c r="E246" s="168"/>
-      <c r="F246" s="168"/>
-      <c r="G246" s="168"/>
-      <c r="H246" s="168"/>
-      <c r="I246" s="168"/>
-      <c r="J246" s="168"/>
-      <c r="K246" s="168"/>
-      <c r="L246" s="168"/>
-      <c r="M246" s="168"/>
+      <c r="D246" s="169"/>
+      <c r="E246" s="169"/>
+      <c r="F246" s="169"/>
+      <c r="G246" s="169"/>
+      <c r="H246" s="169"/>
+      <c r="I246" s="169"/>
+      <c r="J246" s="169"/>
+      <c r="K246" s="169"/>
+      <c r="L246" s="169"/>
+      <c r="M246" s="169"/>
     </row>
     <row r="247" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="18"/>
-      <c r="C247" s="168" t="s">
+      <c r="C247" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="D247" s="168"/>
-      <c r="E247" s="168"/>
-      <c r="F247" s="168"/>
-      <c r="G247" s="168"/>
-      <c r="H247" s="168"/>
-      <c r="I247" s="168"/>
-      <c r="J247" s="168"/>
-      <c r="K247" s="168"/>
-      <c r="L247" s="168"/>
-      <c r="M247" s="168"/>
+      <c r="D247" s="169"/>
+      <c r="E247" s="169"/>
+      <c r="F247" s="169"/>
+      <c r="G247" s="169"/>
+      <c r="H247" s="169"/>
+      <c r="I247" s="169"/>
+      <c r="J247" s="169"/>
+      <c r="K247" s="169"/>
+      <c r="L247" s="169"/>
+      <c r="M247" s="169"/>
     </row>
     <row r="248" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="18"/>
@@ -6725,83 +6740,83 @@
     </row>
     <row r="261" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="18"/>
-      <c r="C261" s="182" t="s">
+      <c r="C261" s="183" t="s">
         <v>304</v>
       </c>
-      <c r="D261" s="183"/>
-      <c r="E261" s="183"/>
-      <c r="F261" s="183"/>
-      <c r="G261" s="183"/>
-      <c r="H261" s="183"/>
-      <c r="I261" s="183"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
-      <c r="L261" s="183"/>
-      <c r="M261" s="184"/>
+      <c r="D261" s="184"/>
+      <c r="E261" s="184"/>
+      <c r="F261" s="184"/>
+      <c r="G261" s="184"/>
+      <c r="H261" s="184"/>
+      <c r="I261" s="184"/>
+      <c r="J261" s="184"/>
+      <c r="K261" s="184"/>
+      <c r="L261" s="184"/>
+      <c r="M261" s="185"/>
       <c r="N261" s="34"/>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="18"/>
-      <c r="C262" s="185"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="186"/>
-      <c r="M262" s="187"/>
+      <c r="C262" s="186"/>
+      <c r="D262" s="187"/>
+      <c r="E262" s="187"/>
+      <c r="F262" s="187"/>
+      <c r="G262" s="187"/>
+      <c r="H262" s="187"/>
+      <c r="I262" s="187"/>
+      <c r="J262" s="187"/>
+      <c r="K262" s="187"/>
+      <c r="L262" s="187"/>
+      <c r="M262" s="188"/>
       <c r="N262" s="60"/>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="18"/>
-      <c r="C263" s="185"/>
-      <c r="D263" s="186"/>
-      <c r="E263" s="186"/>
-      <c r="F263" s="186"/>
-      <c r="G263" s="186"/>
-      <c r="H263" s="186"/>
-      <c r="I263" s="186"/>
-      <c r="J263" s="186"/>
-      <c r="K263" s="186"/>
-      <c r="L263" s="186"/>
-      <c r="M263" s="187"/>
+      <c r="C263" s="186"/>
+      <c r="D263" s="187"/>
+      <c r="E263" s="187"/>
+      <c r="F263" s="187"/>
+      <c r="G263" s="187"/>
+      <c r="H263" s="187"/>
+      <c r="I263" s="187"/>
+      <c r="J263" s="187"/>
+      <c r="K263" s="187"/>
+      <c r="L263" s="187"/>
+      <c r="M263" s="188"/>
       <c r="N263" s="60"/>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="18"/>
-      <c r="C264" s="185"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
-      <c r="F264" s="186"/>
-      <c r="G264" s="186"/>
-      <c r="H264" s="186"/>
-      <c r="I264" s="186"/>
-      <c r="J264" s="186"/>
-      <c r="K264" s="186"/>
-      <c r="L264" s="186"/>
-      <c r="M264" s="187"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="187"/>
+      <c r="E264" s="187"/>
+      <c r="F264" s="187"/>
+      <c r="G264" s="187"/>
+      <c r="H264" s="187"/>
+      <c r="I264" s="187"/>
+      <c r="J264" s="187"/>
+      <c r="K264" s="187"/>
+      <c r="L264" s="187"/>
+      <c r="M264" s="188"/>
       <c r="N264" s="60"/>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="2:15" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="18"/>
-      <c r="C265" s="188"/>
-      <c r="D265" s="189"/>
-      <c r="E265" s="189"/>
-      <c r="F265" s="189"/>
-      <c r="G265" s="189"/>
-      <c r="H265" s="189"/>
-      <c r="I265" s="189"/>
-      <c r="J265" s="189"/>
-      <c r="K265" s="189"/>
-      <c r="L265" s="189"/>
-      <c r="M265" s="190"/>
+      <c r="C265" s="189"/>
+      <c r="D265" s="190"/>
+      <c r="E265" s="190"/>
+      <c r="F265" s="190"/>
+      <c r="G265" s="190"/>
+      <c r="H265" s="190"/>
+      <c r="I265" s="190"/>
+      <c r="J265" s="190"/>
+      <c r="K265" s="190"/>
+      <c r="L265" s="190"/>
+      <c r="M265" s="191"/>
       <c r="N265" s="60"/>
       <c r="O265" s="2"/>
     </row>
@@ -6857,28 +6872,28 @@
     </row>
     <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="18"/>
-      <c r="C269" s="169" t="s">
+      <c r="C269" s="170" t="s">
         <v>253</v>
       </c>
-      <c r="D269" s="169"/>
-      <c r="E269" s="192" t="s">
+      <c r="D269" s="170"/>
+      <c r="E269" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="F269" s="193"/>
-      <c r="G269" s="193"/>
-      <c r="H269" s="193"/>
-      <c r="I269" s="193"/>
-      <c r="J269" s="193"/>
-      <c r="K269" s="193"/>
-      <c r="L269" s="193"/>
-      <c r="M269" s="194"/>
+      <c r="F269" s="194"/>
+      <c r="G269" s="194"/>
+      <c r="H269" s="194"/>
+      <c r="I269" s="194"/>
+      <c r="J269" s="194"/>
+      <c r="K269" s="194"/>
+      <c r="L269" s="194"/>
+      <c r="M269" s="195"/>
       <c r="N269" s="34"/>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="18"/>
-      <c r="C270" s="167"/>
-      <c r="D270" s="167"/>
+      <c r="C270" s="168"/>
+      <c r="D270" s="168"/>
       <c r="E270" s="71"/>
       <c r="F270" s="73"/>
       <c r="G270" s="73"/>
@@ -6886,15 +6901,15 @@
       <c r="I270" s="73"/>
       <c r="J270" s="73"/>
       <c r="K270" s="73"/>
-      <c r="L270" s="152"/>
+      <c r="L270" s="150"/>
       <c r="M270" s="72"/>
       <c r="N270" s="22"/>
       <c r="O270" s="2"/>
     </row>
     <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="18"/>
-      <c r="C271" s="167"/>
-      <c r="D271" s="167"/>
+      <c r="C271" s="168"/>
+      <c r="D271" s="168"/>
       <c r="E271" s="71"/>
       <c r="F271" s="73"/>
       <c r="G271" s="73"/>
@@ -6902,15 +6917,15 @@
       <c r="I271" s="73"/>
       <c r="J271" s="73"/>
       <c r="K271" s="73"/>
-      <c r="L271" s="152"/>
+      <c r="L271" s="150"/>
       <c r="M271" s="72"/>
       <c r="N271" s="13"/>
       <c r="O271" s="2"/>
     </row>
     <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="18"/>
-      <c r="C272" s="167"/>
-      <c r="D272" s="167"/>
+      <c r="C272" s="168"/>
+      <c r="D272" s="168"/>
       <c r="E272" s="71"/>
       <c r="F272" s="73"/>
       <c r="G272" s="73"/>
@@ -6918,15 +6933,15 @@
       <c r="I272" s="73"/>
       <c r="J272" s="73"/>
       <c r="K272" s="73"/>
-      <c r="L272" s="152"/>
+      <c r="L272" s="150"/>
       <c r="M272" s="72"/>
       <c r="N272" s="13"/>
       <c r="O272" s="2"/>
     </row>
     <row r="273" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="18"/>
-      <c r="C273" s="167"/>
-      <c r="D273" s="167"/>
+      <c r="C273" s="168"/>
+      <c r="D273" s="168"/>
       <c r="E273" s="71"/>
       <c r="F273" s="73"/>
       <c r="G273" s="73"/>
@@ -6934,7 +6949,7 @@
       <c r="I273" s="73"/>
       <c r="J273" s="73"/>
       <c r="K273" s="73"/>
-      <c r="L273" s="152"/>
+      <c r="L273" s="150"/>
       <c r="M273" s="72"/>
       <c r="N273" s="13"/>
       <c r="O273" s="2"/>
@@ -6991,83 +7006,83 @@
     </row>
     <row r="277" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="18"/>
-      <c r="C277" s="191" t="s">
+      <c r="C277" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D277" s="191"/>
-      <c r="E277" s="191"/>
-      <c r="F277" s="191"/>
-      <c r="G277" s="191"/>
-      <c r="H277" s="191"/>
-      <c r="I277" s="191"/>
-      <c r="J277" s="191"/>
-      <c r="K277" s="191"/>
-      <c r="L277" s="191"/>
-      <c r="M277" s="191"/>
+      <c r="D277" s="192"/>
+      <c r="E277" s="192"/>
+      <c r="F277" s="192"/>
+      <c r="G277" s="192"/>
+      <c r="H277" s="192"/>
+      <c r="I277" s="192"/>
+      <c r="J277" s="192"/>
+      <c r="K277" s="192"/>
+      <c r="L277" s="192"/>
+      <c r="M277" s="192"/>
       <c r="N277" s="34"/>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="18"/>
-      <c r="C278" s="191"/>
-      <c r="D278" s="191"/>
-      <c r="E278" s="191"/>
-      <c r="F278" s="191"/>
-      <c r="G278" s="191"/>
-      <c r="H278" s="191"/>
-      <c r="I278" s="191"/>
-      <c r="J278" s="191"/>
-      <c r="K278" s="191"/>
-      <c r="L278" s="191"/>
-      <c r="M278" s="191"/>
+      <c r="C278" s="192"/>
+      <c r="D278" s="192"/>
+      <c r="E278" s="192"/>
+      <c r="F278" s="192"/>
+      <c r="G278" s="192"/>
+      <c r="H278" s="192"/>
+      <c r="I278" s="192"/>
+      <c r="J278" s="192"/>
+      <c r="K278" s="192"/>
+      <c r="L278" s="192"/>
+      <c r="M278" s="192"/>
       <c r="N278" s="60"/>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="18"/>
-      <c r="C279" s="191"/>
-      <c r="D279" s="191"/>
-      <c r="E279" s="191"/>
-      <c r="F279" s="191"/>
-      <c r="G279" s="191"/>
-      <c r="H279" s="191"/>
-      <c r="I279" s="191"/>
-      <c r="J279" s="191"/>
-      <c r="K279" s="191"/>
-      <c r="L279" s="191"/>
-      <c r="M279" s="191"/>
+      <c r="C279" s="192"/>
+      <c r="D279" s="192"/>
+      <c r="E279" s="192"/>
+      <c r="F279" s="192"/>
+      <c r="G279" s="192"/>
+      <c r="H279" s="192"/>
+      <c r="I279" s="192"/>
+      <c r="J279" s="192"/>
+      <c r="K279" s="192"/>
+      <c r="L279" s="192"/>
+      <c r="M279" s="192"/>
       <c r="N279" s="60"/>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="18"/>
-      <c r="C280" s="191"/>
-      <c r="D280" s="191"/>
-      <c r="E280" s="191"/>
-      <c r="F280" s="191"/>
-      <c r="G280" s="191"/>
-      <c r="H280" s="191"/>
-      <c r="I280" s="191"/>
-      <c r="J280" s="191"/>
-      <c r="K280" s="191"/>
-      <c r="L280" s="191"/>
-      <c r="M280" s="191"/>
+      <c r="C280" s="192"/>
+      <c r="D280" s="192"/>
+      <c r="E280" s="192"/>
+      <c r="F280" s="192"/>
+      <c r="G280" s="192"/>
+      <c r="H280" s="192"/>
+      <c r="I280" s="192"/>
+      <c r="J280" s="192"/>
+      <c r="K280" s="192"/>
+      <c r="L280" s="192"/>
+      <c r="M280" s="192"/>
       <c r="N280" s="60"/>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="18"/>
-      <c r="C281" s="191"/>
-      <c r="D281" s="191"/>
-      <c r="E281" s="191"/>
-      <c r="F281" s="191"/>
-      <c r="G281" s="191"/>
-      <c r="H281" s="191"/>
-      <c r="I281" s="191"/>
-      <c r="J281" s="191"/>
-      <c r="K281" s="191"/>
-      <c r="L281" s="191"/>
-      <c r="M281" s="191"/>
+      <c r="C281" s="192"/>
+      <c r="D281" s="192"/>
+      <c r="E281" s="192"/>
+      <c r="F281" s="192"/>
+      <c r="G281" s="192"/>
+      <c r="H281" s="192"/>
+      <c r="I281" s="192"/>
+      <c r="J281" s="192"/>
+      <c r="K281" s="192"/>
+      <c r="L281" s="192"/>
+      <c r="M281" s="192"/>
       <c r="N281" s="60"/>
       <c r="O281" s="2"/>
     </row>
@@ -7123,13 +7138,13 @@
     </row>
     <row r="285" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="18"/>
-      <c r="C285" s="165" t="s">
+      <c r="C285" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="D285" s="165"/>
-      <c r="E285" s="165"/>
-      <c r="F285" s="166"/>
-      <c r="G285" s="106"/>
+      <c r="D285" s="166"/>
+      <c r="E285" s="166"/>
+      <c r="F285" s="167"/>
+      <c r="G285" s="105"/>
       <c r="H285" s="25"/>
       <c r="I285" s="25"/>
       <c r="J285" s="25"/>
@@ -7139,10 +7154,10 @@
     </row>
     <row r="286" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="18"/>
-      <c r="C286" s="165"/>
-      <c r="D286" s="165"/>
-      <c r="E286" s="165"/>
-      <c r="F286" s="165"/>
+      <c r="C286" s="166"/>
+      <c r="D286" s="166"/>
+      <c r="E286" s="166"/>
+      <c r="F286" s="166"/>
       <c r="G286" s="13"/>
       <c r="H286" s="25"/>
       <c r="I286" s="25"/>
@@ -7153,13 +7168,13 @@
     </row>
     <row r="287" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="18"/>
-      <c r="C287" s="165" t="s">
+      <c r="C287" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="D287" s="165"/>
-      <c r="E287" s="165"/>
-      <c r="F287" s="166"/>
-      <c r="G287" s="106"/>
+      <c r="D287" s="166"/>
+      <c r="E287" s="166"/>
+      <c r="F287" s="167"/>
+      <c r="G287" s="105"/>
       <c r="H287" s="18" t="s">
         <v>146</v>
       </c>
@@ -7171,10 +7186,10 @@
     </row>
     <row r="288" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="18"/>
-      <c r="C288" s="165"/>
-      <c r="D288" s="165"/>
-      <c r="E288" s="165"/>
-      <c r="F288" s="165"/>
+      <c r="C288" s="166"/>
+      <c r="D288" s="166"/>
+      <c r="E288" s="166"/>
+      <c r="F288" s="166"/>
       <c r="G288" s="13"/>
       <c r="H288" s="25"/>
       <c r="I288" s="25"/>
@@ -7185,13 +7200,13 @@
     </row>
     <row r="289" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="18"/>
-      <c r="C289" s="165" t="s">
+      <c r="C289" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="D289" s="165"/>
-      <c r="E289" s="165"/>
-      <c r="F289" s="166"/>
-      <c r="G289" s="106"/>
+      <c r="D289" s="166"/>
+      <c r="E289" s="166"/>
+      <c r="F289" s="167"/>
+      <c r="G289" s="105"/>
       <c r="H289" s="25"/>
       <c r="I289" s="25"/>
       <c r="J289" s="25"/>
@@ -7215,13 +7230,13 @@
     </row>
     <row r="291" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="18"/>
-      <c r="C291" s="165" t="s">
+      <c r="C291" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="D291" s="165"/>
-      <c r="E291" s="165"/>
-      <c r="F291" s="166"/>
-      <c r="G291" s="106"/>
+      <c r="D291" s="166"/>
+      <c r="E291" s="166"/>
+      <c r="F291" s="167"/>
+      <c r="G291" s="105"/>
       <c r="H291" s="25"/>
       <c r="I291" s="25"/>
       <c r="J291" s="25"/>
@@ -7245,13 +7260,13 @@
     </row>
     <row r="293" spans="2:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="18"/>
-      <c r="C293" s="165" t="s">
+      <c r="C293" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="D293" s="165"/>
-      <c r="E293" s="165"/>
-      <c r="F293" s="166"/>
-      <c r="G293" s="106"/>
+      <c r="D293" s="166"/>
+      <c r="E293" s="166"/>
+      <c r="F293" s="167"/>
+      <c r="G293" s="105"/>
       <c r="H293" s="25"/>
       <c r="I293" s="25"/>
       <c r="J293" s="25"/>
@@ -7353,82 +7368,82 @@
     </row>
     <row r="300" spans="2:15" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="18"/>
-      <c r="C300" s="182" t="s">
+      <c r="C300" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="D300" s="183"/>
-      <c r="E300" s="183"/>
-      <c r="F300" s="183"/>
-      <c r="G300" s="183"/>
-      <c r="H300" s="183"/>
-      <c r="I300" s="183"/>
-      <c r="J300" s="183"/>
-      <c r="K300" s="183"/>
-      <c r="L300" s="183"/>
-      <c r="M300" s="184"/>
+      <c r="D300" s="184"/>
+      <c r="E300" s="184"/>
+      <c r="F300" s="184"/>
+      <c r="G300" s="184"/>
+      <c r="H300" s="184"/>
+      <c r="I300" s="184"/>
+      <c r="J300" s="184"/>
+      <c r="K300" s="184"/>
+      <c r="L300" s="184"/>
+      <c r="M300" s="185"/>
       <c r="N300" s="21"/>
     </row>
     <row r="301" spans="2:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="18"/>
-      <c r="C301" s="185"/>
-      <c r="D301" s="186"/>
-      <c r="E301" s="186"/>
-      <c r="F301" s="186"/>
-      <c r="G301" s="186"/>
-      <c r="H301" s="186"/>
-      <c r="I301" s="186"/>
-      <c r="J301" s="186"/>
-      <c r="K301" s="186"/>
-      <c r="L301" s="186"/>
-      <c r="M301" s="187"/>
+      <c r="C301" s="186"/>
+      <c r="D301" s="187"/>
+      <c r="E301" s="187"/>
+      <c r="F301" s="187"/>
+      <c r="G301" s="187"/>
+      <c r="H301" s="187"/>
+      <c r="I301" s="187"/>
+      <c r="J301" s="187"/>
+      <c r="K301" s="187"/>
+      <c r="L301" s="187"/>
+      <c r="M301" s="188"/>
       <c r="N301" s="60"/>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="18"/>
-      <c r="C302" s="185"/>
-      <c r="D302" s="186"/>
-      <c r="E302" s="186"/>
-      <c r="F302" s="186"/>
-      <c r="G302" s="186"/>
-      <c r="H302" s="186"/>
-      <c r="I302" s="186"/>
-      <c r="J302" s="186"/>
-      <c r="K302" s="186"/>
-      <c r="L302" s="186"/>
-      <c r="M302" s="187"/>
+      <c r="C302" s="186"/>
+      <c r="D302" s="187"/>
+      <c r="E302" s="187"/>
+      <c r="F302" s="187"/>
+      <c r="G302" s="187"/>
+      <c r="H302" s="187"/>
+      <c r="I302" s="187"/>
+      <c r="J302" s="187"/>
+      <c r="K302" s="187"/>
+      <c r="L302" s="187"/>
+      <c r="M302" s="188"/>
       <c r="N302" s="60"/>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="2:15" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="18"/>
-      <c r="C303" s="185"/>
-      <c r="D303" s="186"/>
-      <c r="E303" s="186"/>
-      <c r="F303" s="186"/>
-      <c r="G303" s="186"/>
-      <c r="H303" s="186"/>
-      <c r="I303" s="186"/>
-      <c r="J303" s="186"/>
-      <c r="K303" s="186"/>
-      <c r="L303" s="186"/>
-      <c r="M303" s="187"/>
+      <c r="C303" s="186"/>
+      <c r="D303" s="187"/>
+      <c r="E303" s="187"/>
+      <c r="F303" s="187"/>
+      <c r="G303" s="187"/>
+      <c r="H303" s="187"/>
+      <c r="I303" s="187"/>
+      <c r="J303" s="187"/>
+      <c r="K303" s="187"/>
+      <c r="L303" s="187"/>
+      <c r="M303" s="188"/>
       <c r="N303" s="60"/>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="2:15" ht="119.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="18"/>
-      <c r="C304" s="188"/>
-      <c r="D304" s="189"/>
-      <c r="E304" s="189"/>
-      <c r="F304" s="189"/>
-      <c r="G304" s="189"/>
-      <c r="H304" s="189"/>
-      <c r="I304" s="189"/>
-      <c r="J304" s="189"/>
-      <c r="K304" s="189"/>
-      <c r="L304" s="189"/>
-      <c r="M304" s="190"/>
+      <c r="C304" s="189"/>
+      <c r="D304" s="190"/>
+      <c r="E304" s="190"/>
+      <c r="F304" s="190"/>
+      <c r="G304" s="190"/>
+      <c r="H304" s="190"/>
+      <c r="I304" s="190"/>
+      <c r="J304" s="190"/>
+      <c r="K304" s="190"/>
+      <c r="L304" s="190"/>
+      <c r="M304" s="191"/>
       <c r="N304" s="60"/>
       <c r="O304" s="2"/>
     </row>
@@ -7467,83 +7482,83 @@
     </row>
     <row r="307" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="18"/>
-      <c r="C307" s="182" t="s">
+      <c r="C307" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="D307" s="183"/>
-      <c r="E307" s="183"/>
-      <c r="F307" s="183"/>
-      <c r="G307" s="183"/>
-      <c r="H307" s="183"/>
-      <c r="I307" s="183"/>
-      <c r="J307" s="183"/>
-      <c r="K307" s="183"/>
-      <c r="L307" s="183"/>
-      <c r="M307" s="184"/>
+      <c r="D307" s="184"/>
+      <c r="E307" s="184"/>
+      <c r="F307" s="184"/>
+      <c r="G307" s="184"/>
+      <c r="H307" s="184"/>
+      <c r="I307" s="184"/>
+      <c r="J307" s="184"/>
+      <c r="K307" s="184"/>
+      <c r="L307" s="184"/>
+      <c r="M307" s="185"/>
       <c r="N307" s="34"/>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="2:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="18"/>
-      <c r="C308" s="185"/>
-      <c r="D308" s="186"/>
-      <c r="E308" s="186"/>
-      <c r="F308" s="186"/>
-      <c r="G308" s="186"/>
-      <c r="H308" s="186"/>
-      <c r="I308" s="186"/>
-      <c r="J308" s="186"/>
-      <c r="K308" s="186"/>
-      <c r="L308" s="186"/>
-      <c r="M308" s="187"/>
+      <c r="C308" s="186"/>
+      <c r="D308" s="187"/>
+      <c r="E308" s="187"/>
+      <c r="F308" s="187"/>
+      <c r="G308" s="187"/>
+      <c r="H308" s="187"/>
+      <c r="I308" s="187"/>
+      <c r="J308" s="187"/>
+      <c r="K308" s="187"/>
+      <c r="L308" s="187"/>
+      <c r="M308" s="188"/>
       <c r="N308" s="60"/>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="18"/>
-      <c r="C309" s="185"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
-      <c r="F309" s="186"/>
-      <c r="G309" s="186"/>
-      <c r="H309" s="186"/>
-      <c r="I309" s="186"/>
-      <c r="J309" s="186"/>
-      <c r="K309" s="186"/>
-      <c r="L309" s="186"/>
-      <c r="M309" s="187"/>
+      <c r="C309" s="186"/>
+      <c r="D309" s="187"/>
+      <c r="E309" s="187"/>
+      <c r="F309" s="187"/>
+      <c r="G309" s="187"/>
+      <c r="H309" s="187"/>
+      <c r="I309" s="187"/>
+      <c r="J309" s="187"/>
+      <c r="K309" s="187"/>
+      <c r="L309" s="187"/>
+      <c r="M309" s="188"/>
       <c r="N309" s="60"/>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="18"/>
-      <c r="C310" s="185"/>
-      <c r="D310" s="186"/>
-      <c r="E310" s="186"/>
-      <c r="F310" s="186"/>
-      <c r="G310" s="186"/>
-      <c r="H310" s="186"/>
-      <c r="I310" s="186"/>
-      <c r="J310" s="186"/>
-      <c r="K310" s="186"/>
-      <c r="L310" s="186"/>
-      <c r="M310" s="187"/>
+      <c r="C310" s="186"/>
+      <c r="D310" s="187"/>
+      <c r="E310" s="187"/>
+      <c r="F310" s="187"/>
+      <c r="G310" s="187"/>
+      <c r="H310" s="187"/>
+      <c r="I310" s="187"/>
+      <c r="J310" s="187"/>
+      <c r="K310" s="187"/>
+      <c r="L310" s="187"/>
+      <c r="M310" s="188"/>
       <c r="N310" s="60"/>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="18"/>
-      <c r="C311" s="188"/>
-      <c r="D311" s="189"/>
-      <c r="E311" s="189"/>
-      <c r="F311" s="189"/>
-      <c r="G311" s="189"/>
-      <c r="H311" s="189"/>
-      <c r="I311" s="189"/>
-      <c r="J311" s="189"/>
-      <c r="K311" s="189"/>
-      <c r="L311" s="189"/>
-      <c r="M311" s="190"/>
+      <c r="C311" s="189"/>
+      <c r="D311" s="190"/>
+      <c r="E311" s="190"/>
+      <c r="F311" s="190"/>
+      <c r="G311" s="190"/>
+      <c r="H311" s="190"/>
+      <c r="I311" s="190"/>
+      <c r="J311" s="190"/>
+      <c r="K311" s="190"/>
+      <c r="L311" s="190"/>
+      <c r="M311" s="191"/>
       <c r="N311" s="60"/>
       <c r="O311" s="2"/>
     </row>
@@ -7570,9 +7585,9 @@
       <c r="C313" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="D313" s="117"/>
-      <c r="E313" s="117"/>
-      <c r="F313" s="117"/>
+      <c r="D313" s="116"/>
+      <c r="E313" s="116"/>
+      <c r="F313" s="116"/>
       <c r="G313" s="32"/>
       <c r="H313" s="25"/>
       <c r="I313" s="25"/>
@@ -7601,10 +7616,10 @@
     </row>
     <row r="315" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="18"/>
-      <c r="C315" s="117"/>
-      <c r="D315" s="117"/>
-      <c r="E315" s="117"/>
-      <c r="F315" s="117"/>
+      <c r="C315" s="116"/>
+      <c r="D315" s="116"/>
+      <c r="E315" s="116"/>
+      <c r="F315" s="116"/>
       <c r="G315" s="32"/>
       <c r="H315" s="25"/>
       <c r="I315" s="25"/>
@@ -7620,9 +7635,9 @@
       <c r="C316" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D316" s="117"/>
-      <c r="E316" s="117"/>
-      <c r="F316" s="117"/>
+      <c r="D316" s="116"/>
+      <c r="E316" s="116"/>
+      <c r="F316" s="116"/>
       <c r="G316" s="32"/>
       <c r="H316" s="25"/>
       <c r="I316" s="25"/>
@@ -7635,10 +7650,10 @@
     </row>
     <row r="317" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="18"/>
-      <c r="C317" s="117"/>
-      <c r="D317" s="117"/>
-      <c r="E317" s="117"/>
-      <c r="F317" s="117"/>
+      <c r="C317" s="116"/>
+      <c r="D317" s="116"/>
+      <c r="E317" s="116"/>
+      <c r="F317" s="116"/>
       <c r="G317" s="32"/>
       <c r="H317" s="25"/>
       <c r="I317" s="25"/>
@@ -7723,83 +7738,83 @@
     </row>
     <row r="322" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="18"/>
-      <c r="C322" s="182" t="s">
+      <c r="C322" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="D322" s="183"/>
-      <c r="E322" s="183"/>
-      <c r="F322" s="183"/>
-      <c r="G322" s="183"/>
-      <c r="H322" s="183"/>
-      <c r="I322" s="183"/>
-      <c r="J322" s="183"/>
-      <c r="K322" s="183"/>
-      <c r="L322" s="183"/>
-      <c r="M322" s="184"/>
+      <c r="D322" s="184"/>
+      <c r="E322" s="184"/>
+      <c r="F322" s="184"/>
+      <c r="G322" s="184"/>
+      <c r="H322" s="184"/>
+      <c r="I322" s="184"/>
+      <c r="J322" s="184"/>
+      <c r="K322" s="184"/>
+      <c r="L322" s="184"/>
+      <c r="M322" s="185"/>
       <c r="N322" s="34"/>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="18"/>
-      <c r="C323" s="185"/>
-      <c r="D323" s="186"/>
-      <c r="E323" s="186"/>
-      <c r="F323" s="186"/>
-      <c r="G323" s="186"/>
-      <c r="H323" s="186"/>
-      <c r="I323" s="186"/>
-      <c r="J323" s="186"/>
-      <c r="K323" s="186"/>
-      <c r="L323" s="186"/>
-      <c r="M323" s="187"/>
+      <c r="C323" s="186"/>
+      <c r="D323" s="187"/>
+      <c r="E323" s="187"/>
+      <c r="F323" s="187"/>
+      <c r="G323" s="187"/>
+      <c r="H323" s="187"/>
+      <c r="I323" s="187"/>
+      <c r="J323" s="187"/>
+      <c r="K323" s="187"/>
+      <c r="L323" s="187"/>
+      <c r="M323" s="188"/>
       <c r="N323" s="60"/>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="18"/>
-      <c r="C324" s="185"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
-      <c r="F324" s="186"/>
-      <c r="G324" s="186"/>
-      <c r="H324" s="186"/>
-      <c r="I324" s="186"/>
-      <c r="J324" s="186"/>
-      <c r="K324" s="186"/>
-      <c r="L324" s="186"/>
-      <c r="M324" s="187"/>
+      <c r="C324" s="186"/>
+      <c r="D324" s="187"/>
+      <c r="E324" s="187"/>
+      <c r="F324" s="187"/>
+      <c r="G324" s="187"/>
+      <c r="H324" s="187"/>
+      <c r="I324" s="187"/>
+      <c r="J324" s="187"/>
+      <c r="K324" s="187"/>
+      <c r="L324" s="187"/>
+      <c r="M324" s="188"/>
       <c r="N324" s="60"/>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="18"/>
-      <c r="C325" s="185"/>
-      <c r="D325" s="186"/>
-      <c r="E325" s="186"/>
-      <c r="F325" s="186"/>
-      <c r="G325" s="186"/>
-      <c r="H325" s="186"/>
-      <c r="I325" s="186"/>
-      <c r="J325" s="186"/>
-      <c r="K325" s="186"/>
-      <c r="L325" s="186"/>
-      <c r="M325" s="187"/>
+      <c r="C325" s="186"/>
+      <c r="D325" s="187"/>
+      <c r="E325" s="187"/>
+      <c r="F325" s="187"/>
+      <c r="G325" s="187"/>
+      <c r="H325" s="187"/>
+      <c r="I325" s="187"/>
+      <c r="J325" s="187"/>
+      <c r="K325" s="187"/>
+      <c r="L325" s="187"/>
+      <c r="M325" s="188"/>
       <c r="N325" s="60"/>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="18"/>
-      <c r="C326" s="188"/>
-      <c r="D326" s="189"/>
-      <c r="E326" s="189"/>
-      <c r="F326" s="189"/>
-      <c r="G326" s="189"/>
-      <c r="H326" s="189"/>
-      <c r="I326" s="189"/>
-      <c r="J326" s="189"/>
-      <c r="K326" s="189"/>
-      <c r="L326" s="189"/>
-      <c r="M326" s="190"/>
+      <c r="C326" s="189"/>
+      <c r="D326" s="190"/>
+      <c r="E326" s="190"/>
+      <c r="F326" s="190"/>
+      <c r="G326" s="190"/>
+      <c r="H326" s="190"/>
+      <c r="I326" s="190"/>
+      <c r="J326" s="190"/>
+      <c r="K326" s="190"/>
+      <c r="L326" s="190"/>
+      <c r="M326" s="191"/>
       <c r="N326" s="60"/>
       <c r="O326" s="2"/>
     </row>
@@ -7821,19 +7836,19 @@
     </row>
     <row r="328" spans="2:15" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="18"/>
-      <c r="C328" s="210" t="s">
+      <c r="C328" s="211" t="s">
         <v>156</v>
       </c>
-      <c r="D328" s="210"/>
-      <c r="E328" s="210"/>
-      <c r="F328" s="210"/>
-      <c r="G328" s="210"/>
-      <c r="H328" s="210"/>
-      <c r="I328" s="210"/>
-      <c r="J328" s="210"/>
-      <c r="K328" s="210"/>
-      <c r="L328" s="210"/>
-      <c r="M328" s="210"/>
+      <c r="D328" s="211"/>
+      <c r="E328" s="211"/>
+      <c r="F328" s="211"/>
+      <c r="G328" s="211"/>
+      <c r="H328" s="211"/>
+      <c r="I328" s="211"/>
+      <c r="J328" s="211"/>
+      <c r="K328" s="211"/>
+      <c r="L328" s="211"/>
+      <c r="M328" s="211"/>
       <c r="N328" s="20"/>
       <c r="O328" s="2"/>
     </row>
@@ -7948,79 +7963,79 @@
     </row>
     <row r="336" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="18"/>
-      <c r="C336" s="173" t="s">
+      <c r="C336" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="D336" s="174"/>
-      <c r="E336" s="174"/>
-      <c r="F336" s="174"/>
-      <c r="G336" s="174"/>
-      <c r="H336" s="174"/>
-      <c r="I336" s="174"/>
-      <c r="J336" s="174"/>
-      <c r="K336" s="174"/>
-      <c r="L336" s="174"/>
-      <c r="M336" s="175"/>
+      <c r="D336" s="175"/>
+      <c r="E336" s="175"/>
+      <c r="F336" s="175"/>
+      <c r="G336" s="175"/>
+      <c r="H336" s="175"/>
+      <c r="I336" s="175"/>
+      <c r="J336" s="175"/>
+      <c r="K336" s="175"/>
+      <c r="L336" s="175"/>
+      <c r="M336" s="176"/>
       <c r="N336" s="34"/>
     </row>
     <row r="337" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="18"/>
-      <c r="C337" s="176"/>
-      <c r="D337" s="177"/>
-      <c r="E337" s="177"/>
-      <c r="F337" s="177"/>
-      <c r="G337" s="177"/>
-      <c r="H337" s="177"/>
-      <c r="I337" s="177"/>
-      <c r="J337" s="177"/>
-      <c r="K337" s="177"/>
-      <c r="L337" s="177"/>
-      <c r="M337" s="178"/>
+      <c r="C337" s="177"/>
+      <c r="D337" s="178"/>
+      <c r="E337" s="178"/>
+      <c r="F337" s="178"/>
+      <c r="G337" s="178"/>
+      <c r="H337" s="178"/>
+      <c r="I337" s="178"/>
+      <c r="J337" s="178"/>
+      <c r="K337" s="178"/>
+      <c r="L337" s="178"/>
+      <c r="M337" s="179"/>
       <c r="N337" s="60"/>
     </row>
     <row r="338" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="18"/>
-      <c r="C338" s="176"/>
-      <c r="D338" s="177"/>
-      <c r="E338" s="177"/>
-      <c r="F338" s="177"/>
-      <c r="G338" s="177"/>
-      <c r="H338" s="177"/>
-      <c r="I338" s="177"/>
-      <c r="J338" s="177"/>
-      <c r="K338" s="177"/>
-      <c r="L338" s="177"/>
-      <c r="M338" s="178"/>
+      <c r="C338" s="177"/>
+      <c r="D338" s="178"/>
+      <c r="E338" s="178"/>
+      <c r="F338" s="178"/>
+      <c r="G338" s="178"/>
+      <c r="H338" s="178"/>
+      <c r="I338" s="178"/>
+      <c r="J338" s="178"/>
+      <c r="K338" s="178"/>
+      <c r="L338" s="178"/>
+      <c r="M338" s="179"/>
       <c r="N338" s="60"/>
     </row>
     <row r="339" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="18"/>
-      <c r="C339" s="176"/>
-      <c r="D339" s="177"/>
-      <c r="E339" s="177"/>
-      <c r="F339" s="177"/>
-      <c r="G339" s="177"/>
-      <c r="H339" s="177"/>
-      <c r="I339" s="177"/>
-      <c r="J339" s="177"/>
-      <c r="K339" s="177"/>
-      <c r="L339" s="177"/>
-      <c r="M339" s="178"/>
+      <c r="C339" s="177"/>
+      <c r="D339" s="178"/>
+      <c r="E339" s="178"/>
+      <c r="F339" s="178"/>
+      <c r="G339" s="178"/>
+      <c r="H339" s="178"/>
+      <c r="I339" s="178"/>
+      <c r="J339" s="178"/>
+      <c r="K339" s="178"/>
+      <c r="L339" s="178"/>
+      <c r="M339" s="179"/>
       <c r="N339" s="60"/>
     </row>
     <row r="340" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="18"/>
-      <c r="C340" s="179"/>
-      <c r="D340" s="180"/>
-      <c r="E340" s="180"/>
-      <c r="F340" s="180"/>
-      <c r="G340" s="180"/>
-      <c r="H340" s="180"/>
-      <c r="I340" s="180"/>
-      <c r="J340" s="180"/>
-      <c r="K340" s="180"/>
-      <c r="L340" s="180"/>
-      <c r="M340" s="181"/>
+      <c r="C340" s="180"/>
+      <c r="D340" s="181"/>
+      <c r="E340" s="181"/>
+      <c r="F340" s="181"/>
+      <c r="G340" s="181"/>
+      <c r="H340" s="181"/>
+      <c r="I340" s="181"/>
+      <c r="J340" s="181"/>
+      <c r="K340" s="181"/>
+      <c r="L340" s="181"/>
+      <c r="M340" s="182"/>
       <c r="N340" s="60"/>
     </row>
     <row r="341" spans="2:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8040,27 +8055,27 @@
     </row>
     <row r="342" spans="2:14" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="18"/>
-      <c r="C342" s="210" t="s">
+      <c r="C342" s="211" t="s">
         <v>251</v>
       </c>
-      <c r="D342" s="210"/>
-      <c r="E342" s="210"/>
-      <c r="F342" s="210"/>
-      <c r="G342" s="210"/>
-      <c r="H342" s="210"/>
-      <c r="I342" s="210"/>
-      <c r="J342" s="210"/>
-      <c r="K342" s="210"/>
-      <c r="L342" s="210"/>
-      <c r="M342" s="210"/>
+      <c r="D342" s="211"/>
+      <c r="E342" s="211"/>
+      <c r="F342" s="211"/>
+      <c r="G342" s="211"/>
+      <c r="H342" s="211"/>
+      <c r="I342" s="211"/>
+      <c r="J342" s="211"/>
+      <c r="K342" s="211"/>
+      <c r="L342" s="211"/>
+      <c r="M342" s="211"/>
       <c r="N342" s="60"/>
     </row>
     <row r="343" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="18"/>
-      <c r="C343" s="117"/>
-      <c r="D343" s="117"/>
-      <c r="E343" s="117"/>
-      <c r="F343" s="117"/>
+      <c r="C343" s="116"/>
+      <c r="D343" s="116"/>
+      <c r="E343" s="116"/>
+      <c r="F343" s="116"/>
       <c r="G343" s="32"/>
       <c r="H343" s="25"/>
       <c r="I343" s="25"/>
@@ -8074,9 +8089,9 @@
       <c r="C344" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D344" s="117"/>
-      <c r="E344" s="117"/>
-      <c r="F344" s="117"/>
+      <c r="D344" s="116"/>
+      <c r="E344" s="116"/>
+      <c r="F344" s="116"/>
       <c r="G344" s="32"/>
       <c r="H344" s="25"/>
       <c r="I344" s="25"/>
@@ -8087,10 +8102,10 @@
     </row>
     <row r="345" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="18"/>
-      <c r="C345" s="117"/>
-      <c r="D345" s="117"/>
-      <c r="E345" s="117"/>
-      <c r="F345" s="117"/>
+      <c r="C345" s="116"/>
+      <c r="D345" s="116"/>
+      <c r="E345" s="116"/>
+      <c r="F345" s="116"/>
       <c r="G345" s="32"/>
       <c r="H345" s="25"/>
       <c r="I345" s="25"/>
@@ -8101,13 +8116,13 @@
     </row>
     <row r="346" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="18"/>
-      <c r="C346" s="207" t="s">
+      <c r="C346" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="D346" s="207"/>
-      <c r="E346" s="207"/>
-      <c r="F346" s="207"/>
-      <c r="H346" s="106"/>
+      <c r="D346" s="208"/>
+      <c r="E346" s="208"/>
+      <c r="F346" s="208"/>
+      <c r="H346" s="105"/>
       <c r="I346" s="25"/>
       <c r="J346" s="25"/>
       <c r="K346" s="25"/>
@@ -8129,13 +8144,13 @@
     </row>
     <row r="348" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" s="18"/>
-      <c r="C348" s="207" t="s">
+      <c r="C348" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="D348" s="207"/>
-      <c r="E348" s="207"/>
-      <c r="F348" s="207"/>
-      <c r="H348" s="106"/>
+      <c r="D348" s="208"/>
+      <c r="E348" s="208"/>
+      <c r="F348" s="208"/>
+      <c r="H348" s="105"/>
       <c r="I348" s="18" t="s">
         <v>164</v>
       </c>
@@ -8159,14 +8174,14 @@
     </row>
     <row r="350" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="18"/>
-      <c r="C350" s="207" t="s">
+      <c r="C350" s="208" t="s">
         <v>165</v>
       </c>
-      <c r="D350" s="207"/>
-      <c r="E350" s="207"/>
-      <c r="F350" s="207"/>
-      <c r="G350" s="166"/>
-      <c r="H350" s="106"/>
+      <c r="D350" s="208"/>
+      <c r="E350" s="208"/>
+      <c r="F350" s="208"/>
+      <c r="G350" s="167"/>
+      <c r="H350" s="105"/>
       <c r="I350" s="25"/>
       <c r="J350" s="25"/>
       <c r="K350" s="25"/>
@@ -8188,14 +8203,14 @@
     </row>
     <row r="352" spans="2:14" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="18"/>
-      <c r="C352" s="207" t="s">
+      <c r="C352" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="D352" s="207"/>
-      <c r="E352" s="207"/>
-      <c r="F352" s="207"/>
-      <c r="G352" s="166"/>
-      <c r="H352" s="106"/>
+      <c r="D352" s="208"/>
+      <c r="E352" s="208"/>
+      <c r="F352" s="208"/>
+      <c r="G352" s="167"/>
+      <c r="H352" s="105"/>
       <c r="I352" s="25"/>
       <c r="J352" s="25"/>
       <c r="K352" s="25"/>
@@ -8217,14 +8232,14 @@
     </row>
     <row r="354" spans="2:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="18"/>
-      <c r="C354" s="207" t="s">
+      <c r="C354" s="208" t="s">
         <v>167</v>
       </c>
-      <c r="D354" s="207"/>
-      <c r="E354" s="207"/>
-      <c r="F354" s="207"/>
-      <c r="G354" s="166"/>
-      <c r="H354" s="106"/>
+      <c r="D354" s="208"/>
+      <c r="E354" s="208"/>
+      <c r="F354" s="208"/>
+      <c r="G354" s="167"/>
+      <c r="H354" s="105"/>
       <c r="I354" s="25"/>
       <c r="J354" s="25"/>
       <c r="K354" s="25"/>
@@ -8233,10 +8248,10 @@
     </row>
     <row r="355" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="18"/>
-      <c r="C355" s="117"/>
-      <c r="D355" s="117"/>
-      <c r="E355" s="117"/>
-      <c r="F355" s="117"/>
+      <c r="C355" s="116"/>
+      <c r="D355" s="116"/>
+      <c r="E355" s="116"/>
+      <c r="F355" s="116"/>
       <c r="G355" s="32"/>
       <c r="H355" s="25"/>
       <c r="I355" s="25"/>
@@ -8249,7 +8264,7 @@
       <c r="B356" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C356" s="118" t="s">
+      <c r="C356" s="117" t="s">
         <v>169</v>
       </c>
       <c r="D356" s="25"/>
@@ -8295,83 +8310,83 @@
     </row>
     <row r="359" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="18"/>
-      <c r="C359" s="182" t="s">
+      <c r="C359" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="D359" s="183"/>
-      <c r="E359" s="183"/>
-      <c r="F359" s="183"/>
-      <c r="G359" s="183"/>
-      <c r="H359" s="183"/>
-      <c r="I359" s="183"/>
-      <c r="J359" s="183"/>
-      <c r="K359" s="183"/>
-      <c r="L359" s="183"/>
-      <c r="M359" s="184"/>
+      <c r="D359" s="184"/>
+      <c r="E359" s="184"/>
+      <c r="F359" s="184"/>
+      <c r="G359" s="184"/>
+      <c r="H359" s="184"/>
+      <c r="I359" s="184"/>
+      <c r="J359" s="184"/>
+      <c r="K359" s="184"/>
+      <c r="L359" s="184"/>
+      <c r="M359" s="185"/>
       <c r="N359" s="34"/>
       <c r="O359" s="2"/>
     </row>
     <row r="360" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="18"/>
-      <c r="C360" s="185"/>
-      <c r="D360" s="186"/>
-      <c r="E360" s="186"/>
-      <c r="F360" s="186"/>
-      <c r="G360" s="186"/>
-      <c r="H360" s="186"/>
-      <c r="I360" s="186"/>
-      <c r="J360" s="186"/>
-      <c r="K360" s="186"/>
-      <c r="L360" s="186"/>
-      <c r="M360" s="187"/>
+      <c r="C360" s="186"/>
+      <c r="D360" s="187"/>
+      <c r="E360" s="187"/>
+      <c r="F360" s="187"/>
+      <c r="G360" s="187"/>
+      <c r="H360" s="187"/>
+      <c r="I360" s="187"/>
+      <c r="J360" s="187"/>
+      <c r="K360" s="187"/>
+      <c r="L360" s="187"/>
+      <c r="M360" s="188"/>
       <c r="N360" s="60"/>
       <c r="O360" s="2"/>
     </row>
     <row r="361" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="18"/>
-      <c r="C361" s="185"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
-      <c r="F361" s="186"/>
-      <c r="G361" s="186"/>
-      <c r="H361" s="186"/>
-      <c r="I361" s="186"/>
-      <c r="J361" s="186"/>
-      <c r="K361" s="186"/>
-      <c r="L361" s="186"/>
-      <c r="M361" s="187"/>
+      <c r="C361" s="186"/>
+      <c r="D361" s="187"/>
+      <c r="E361" s="187"/>
+      <c r="F361" s="187"/>
+      <c r="G361" s="187"/>
+      <c r="H361" s="187"/>
+      <c r="I361" s="187"/>
+      <c r="J361" s="187"/>
+      <c r="K361" s="187"/>
+      <c r="L361" s="187"/>
+      <c r="M361" s="188"/>
       <c r="N361" s="60"/>
       <c r="O361" s="2"/>
     </row>
     <row r="362" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="18"/>
-      <c r="C362" s="185"/>
-      <c r="D362" s="186"/>
-      <c r="E362" s="186"/>
-      <c r="F362" s="186"/>
-      <c r="G362" s="186"/>
-      <c r="H362" s="186"/>
-      <c r="I362" s="186"/>
-      <c r="J362" s="186"/>
-      <c r="K362" s="186"/>
-      <c r="L362" s="186"/>
-      <c r="M362" s="187"/>
+      <c r="C362" s="186"/>
+      <c r="D362" s="187"/>
+      <c r="E362" s="187"/>
+      <c r="F362" s="187"/>
+      <c r="G362" s="187"/>
+      <c r="H362" s="187"/>
+      <c r="I362" s="187"/>
+      <c r="J362" s="187"/>
+      <c r="K362" s="187"/>
+      <c r="L362" s="187"/>
+      <c r="M362" s="188"/>
       <c r="N362" s="60"/>
       <c r="O362" s="2"/>
     </row>
     <row r="363" spans="2:15" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="18"/>
-      <c r="C363" s="188"/>
-      <c r="D363" s="189"/>
-      <c r="E363" s="189"/>
-      <c r="F363" s="189"/>
-      <c r="G363" s="189"/>
-      <c r="H363" s="189"/>
-      <c r="I363" s="189"/>
-      <c r="J363" s="189"/>
-      <c r="K363" s="189"/>
-      <c r="L363" s="189"/>
-      <c r="M363" s="190"/>
+      <c r="C363" s="189"/>
+      <c r="D363" s="190"/>
+      <c r="E363" s="190"/>
+      <c r="F363" s="190"/>
+      <c r="G363" s="190"/>
+      <c r="H363" s="190"/>
+      <c r="I363" s="190"/>
+      <c r="J363" s="190"/>
+      <c r="K363" s="190"/>
+      <c r="L363" s="190"/>
+      <c r="M363" s="191"/>
       <c r="N363" s="60"/>
       <c r="O363" s="2"/>
     </row>
@@ -8446,28 +8461,28 @@
     </row>
     <row r="368" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B368" s="18"/>
-      <c r="C368" s="211" t="s">
+      <c r="C368" s="212" t="s">
         <v>253</v>
       </c>
-      <c r="D368" s="212"/>
-      <c r="E368" s="208" t="s">
+      <c r="D368" s="213"/>
+      <c r="E368" s="209" t="s">
         <v>141</v>
       </c>
-      <c r="F368" s="213"/>
-      <c r="G368" s="213"/>
-      <c r="H368" s="213"/>
-      <c r="I368" s="213"/>
-      <c r="J368" s="213"/>
-      <c r="K368" s="213"/>
-      <c r="L368" s="213"/>
-      <c r="M368" s="209"/>
+      <c r="F368" s="214"/>
+      <c r="G368" s="214"/>
+      <c r="H368" s="214"/>
+      <c r="I368" s="214"/>
+      <c r="J368" s="214"/>
+      <c r="K368" s="214"/>
+      <c r="L368" s="214"/>
+      <c r="M368" s="210"/>
       <c r="N368" s="20"/>
       <c r="O368" s="2"/>
     </row>
     <row r="369" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B369" s="18"/>
-      <c r="C369" s="208"/>
-      <c r="D369" s="209"/>
+      <c r="C369" s="209"/>
+      <c r="D369" s="210"/>
       <c r="E369" s="71"/>
       <c r="F369" s="73"/>
       <c r="G369" s="73"/>
@@ -8475,26 +8490,26 @@
       <c r="I369" s="73"/>
       <c r="J369" s="73"/>
       <c r="K369" s="73"/>
-      <c r="L369" s="152"/>
+      <c r="L369" s="150"/>
       <c r="M369" s="72"/>
       <c r="N369" s="13"/>
       <c r="O369" s="2"/>
     </row>
     <row r="370" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="18"/>
-      <c r="C370" s="206" t="s">
+      <c r="C370" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="D370" s="206"/>
-      <c r="E370" s="206"/>
-      <c r="F370" s="206"/>
-      <c r="G370" s="206"/>
-      <c r="H370" s="206"/>
-      <c r="I370" s="206"/>
-      <c r="J370" s="206"/>
-      <c r="K370" s="206"/>
-      <c r="L370" s="206"/>
-      <c r="M370" s="206"/>
+      <c r="D370" s="207"/>
+      <c r="E370" s="207"/>
+      <c r="F370" s="207"/>
+      <c r="G370" s="207"/>
+      <c r="H370" s="207"/>
+      <c r="I370" s="207"/>
+      <c r="J370" s="207"/>
+      <c r="K370" s="207"/>
+      <c r="L370" s="207"/>
+      <c r="M370" s="207"/>
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
@@ -8582,20 +8597,20 @@
       <c r="C376" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D376" s="266" t="s">
+      <c r="D376" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="E376" s="266"/>
-      <c r="F376" s="267" t="s">
+      <c r="E376" s="267"/>
+      <c r="F376" s="268" t="s">
         <v>174</v>
       </c>
-      <c r="G376" s="267"/>
-      <c r="H376" s="267"/>
-      <c r="I376" s="267" t="s">
+      <c r="G376" s="268"/>
+      <c r="H376" s="268"/>
+      <c r="I376" s="268" t="s">
         <v>175</v>
       </c>
-      <c r="J376" s="267"/>
-      <c r="K376" s="267"/>
+      <c r="J376" s="268"/>
+      <c r="K376" s="268"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
       <c r="N376" s="18"/>
@@ -8605,14 +8620,14 @@
       <c r="C377" s="75">
         <v>1</v>
       </c>
-      <c r="D377" s="266"/>
-      <c r="E377" s="266"/>
-      <c r="F377" s="267"/>
-      <c r="G377" s="267"/>
-      <c r="H377" s="267"/>
-      <c r="I377" s="267"/>
-      <c r="J377" s="267"/>
-      <c r="K377" s="267"/>
+      <c r="D377" s="267"/>
+      <c r="E377" s="267"/>
+      <c r="F377" s="268"/>
+      <c r="G377" s="268"/>
+      <c r="H377" s="268"/>
+      <c r="I377" s="268"/>
+      <c r="J377" s="268"/>
+      <c r="K377" s="268"/>
       <c r="L377" s="22"/>
       <c r="M377" s="34"/>
       <c r="N377" s="76"/>
@@ -8622,14 +8637,14 @@
       <c r="C378" s="75">
         <v>2</v>
       </c>
-      <c r="D378" s="266"/>
-      <c r="E378" s="266"/>
-      <c r="F378" s="267"/>
-      <c r="G378" s="267"/>
-      <c r="H378" s="267"/>
-      <c r="I378" s="267"/>
-      <c r="J378" s="267"/>
-      <c r="K378" s="267"/>
+      <c r="D378" s="267"/>
+      <c r="E378" s="267"/>
+      <c r="F378" s="268"/>
+      <c r="G378" s="268"/>
+      <c r="H378" s="268"/>
+      <c r="I378" s="268"/>
+      <c r="J378" s="268"/>
+      <c r="K378" s="268"/>
       <c r="L378" s="22"/>
       <c r="M378" s="34"/>
       <c r="N378" s="34"/>
@@ -8639,14 +8654,14 @@
       <c r="C379" s="75">
         <v>3</v>
       </c>
-      <c r="D379" s="266"/>
-      <c r="E379" s="266"/>
-      <c r="F379" s="267"/>
-      <c r="G379" s="267"/>
-      <c r="H379" s="267"/>
-      <c r="I379" s="267"/>
-      <c r="J379" s="267"/>
-      <c r="K379" s="267"/>
+      <c r="D379" s="267"/>
+      <c r="E379" s="267"/>
+      <c r="F379" s="268"/>
+      <c r="G379" s="268"/>
+      <c r="H379" s="268"/>
+      <c r="I379" s="268"/>
+      <c r="J379" s="268"/>
+      <c r="K379" s="268"/>
       <c r="L379" s="22"/>
       <c r="M379" s="34"/>
       <c r="N379" s="34"/>
@@ -8656,14 +8671,14 @@
       <c r="C380" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="D380" s="266"/>
-      <c r="E380" s="266"/>
-      <c r="F380" s="267"/>
-      <c r="G380" s="267"/>
-      <c r="H380" s="267"/>
-      <c r="I380" s="267"/>
-      <c r="J380" s="267"/>
-      <c r="K380" s="267"/>
+      <c r="D380" s="267"/>
+      <c r="E380" s="267"/>
+      <c r="F380" s="268"/>
+      <c r="G380" s="268"/>
+      <c r="H380" s="268"/>
+      <c r="I380" s="268"/>
+      <c r="J380" s="268"/>
+      <c r="K380" s="268"/>
       <c r="L380" s="22"/>
       <c r="M380" s="34"/>
       <c r="N380" s="34"/>
@@ -8673,14 +8688,14 @@
       <c r="C381" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="D381" s="266"/>
-      <c r="E381" s="266"/>
-      <c r="F381" s="267"/>
-      <c r="G381" s="267"/>
-      <c r="H381" s="267"/>
-      <c r="I381" s="267"/>
-      <c r="J381" s="267"/>
-      <c r="K381" s="267"/>
+      <c r="D381" s="267"/>
+      <c r="E381" s="267"/>
+      <c r="F381" s="268"/>
+      <c r="G381" s="268"/>
+      <c r="H381" s="268"/>
+      <c r="I381" s="268"/>
+      <c r="J381" s="268"/>
+      <c r="K381" s="268"/>
       <c r="L381" s="22"/>
       <c r="M381" s="34"/>
       <c r="N381" s="34"/>
@@ -8690,14 +8705,14 @@
       <c r="C382" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D382" s="266"/>
-      <c r="E382" s="266"/>
-      <c r="F382" s="267"/>
-      <c r="G382" s="267"/>
-      <c r="H382" s="267"/>
-      <c r="I382" s="267"/>
-      <c r="J382" s="267"/>
-      <c r="K382" s="267"/>
+      <c r="D382" s="267"/>
+      <c r="E382" s="267"/>
+      <c r="F382" s="268"/>
+      <c r="G382" s="268"/>
+      <c r="H382" s="268"/>
+      <c r="I382" s="268"/>
+      <c r="J382" s="268"/>
+      <c r="K382" s="268"/>
       <c r="L382" s="22"/>
       <c r="M382" s="34"/>
       <c r="N382" s="34"/>
@@ -8707,14 +8722,14 @@
       <c r="C383" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="D383" s="266"/>
-      <c r="E383" s="266"/>
-      <c r="F383" s="267"/>
-      <c r="G383" s="267"/>
-      <c r="H383" s="267"/>
-      <c r="I383" s="267"/>
-      <c r="J383" s="267"/>
-      <c r="K383" s="267"/>
+      <c r="D383" s="267"/>
+      <c r="E383" s="267"/>
+      <c r="F383" s="268"/>
+      <c r="G383" s="268"/>
+      <c r="H383" s="268"/>
+      <c r="I383" s="268"/>
+      <c r="J383" s="268"/>
+      <c r="K383" s="268"/>
       <c r="L383" s="22"/>
       <c r="M383" s="34"/>
       <c r="N383" s="34"/>
@@ -8785,16 +8800,16 @@
         <v>274</v>
       </c>
       <c r="C388" s="14"/>
-      <c r="D388" s="99"/>
-      <c r="E388" s="99"/>
-      <c r="F388" s="99"/>
-      <c r="G388" s="99"/>
-      <c r="H388" s="99"/>
-      <c r="I388" s="99"/>
-      <c r="J388" s="99"/>
-      <c r="K388" s="99"/>
-      <c r="L388" s="99"/>
-      <c r="M388" s="99"/>
+      <c r="D388" s="98"/>
+      <c r="E388" s="98"/>
+      <c r="F388" s="98"/>
+      <c r="G388" s="98"/>
+      <c r="H388" s="98"/>
+      <c r="I388" s="98"/>
+      <c r="J388" s="98"/>
+      <c r="K388" s="98"/>
+      <c r="L388" s="98"/>
+      <c r="M388" s="98"/>
     </row>
     <row r="389" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B389" s="18"/>
@@ -8839,10 +8854,10 @@
     </row>
     <row r="393" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B393" s="18"/>
-      <c r="D393" s="266" t="s">
+      <c r="D393" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="E393" s="266"/>
+      <c r="E393" s="267"/>
       <c r="J393" s="25"/>
       <c r="K393" s="25"/>
       <c r="L393" s="25"/>
@@ -8850,43 +8865,43 @@
     </row>
     <row r="394" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
-      <c r="C394" s="169" t="s">
+      <c r="C394" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="D394" s="169" t="s">
+      <c r="D394" s="170" t="s">
         <v>264</v>
       </c>
-      <c r="E394" s="169" t="s">
+      <c r="E394" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="F394" s="169" t="s">
+      <c r="F394" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="G394" s="268" t="s">
+      <c r="G394" s="269" t="s">
         <v>183</v>
       </c>
-      <c r="H394" s="268" t="s">
+      <c r="H394" s="269" t="s">
         <v>176</v>
       </c>
-      <c r="I394" s="268" t="s">
+      <c r="I394" s="269" t="s">
         <v>184</v>
       </c>
-      <c r="J394" s="267" t="s">
+      <c r="J394" s="268" t="s">
         <v>185</v>
       </c>
-      <c r="K394" s="267"/>
+      <c r="K394" s="268"/>
       <c r="L394" s="22"/>
       <c r="M394" s="25"/>
     </row>
     <row r="395" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
-      <c r="C395" s="169"/>
-      <c r="D395" s="169"/>
-      <c r="E395" s="169"/>
-      <c r="F395" s="169"/>
-      <c r="G395" s="269"/>
-      <c r="H395" s="269"/>
-      <c r="I395" s="269"/>
+      <c r="C395" s="170"/>
+      <c r="D395" s="170"/>
+      <c r="E395" s="170"/>
+      <c r="F395" s="170"/>
+      <c r="G395" s="270"/>
+      <c r="H395" s="270"/>
+      <c r="I395" s="270"/>
       <c r="J395" s="75" t="s">
         <v>186</v>
       </c>
@@ -8899,7 +8914,7 @@
     <row r="396" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" s="18"/>
       <c r="C396" s="39"/>
-      <c r="D396" s="103"/>
+      <c r="D396" s="102"/>
       <c r="E396" s="39" t="s">
         <v>188</v>
       </c>
@@ -8907,15 +8922,15 @@
       <c r="G396" s="39"/>
       <c r="H396" s="39"/>
       <c r="I396" s="39"/>
-      <c r="J396" s="119"/>
-      <c r="K396" s="119"/>
-      <c r="L396" s="159"/>
+      <c r="J396" s="118"/>
+      <c r="K396" s="118"/>
+      <c r="L396" s="157"/>
       <c r="M396" s="25"/>
     </row>
     <row r="397" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B397" s="18"/>
       <c r="C397" s="39"/>
-      <c r="D397" s="103"/>
+      <c r="D397" s="102"/>
       <c r="E397" s="39" t="s">
         <v>189</v>
       </c>
@@ -8931,14 +8946,14 @@
     <row r="398" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B398" s="18"/>
       <c r="C398" s="39"/>
-      <c r="D398" s="103"/>
+      <c r="D398" s="102"/>
       <c r="E398" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F398" s="39"/>
-      <c r="G398" s="103"/>
-      <c r="H398" s="103"/>
-      <c r="I398" s="103"/>
+      <c r="G398" s="102"/>
+      <c r="H398" s="102"/>
+      <c r="I398" s="102"/>
       <c r="J398" s="82"/>
       <c r="K398" s="82"/>
       <c r="L398" s="13"/>
@@ -8947,14 +8962,14 @@
     <row r="399" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B399" s="18"/>
       <c r="C399" s="39"/>
-      <c r="D399" s="103"/>
+      <c r="D399" s="102"/>
       <c r="E399" s="39" t="s">
         <v>191</v>
       </c>
       <c r="F399" s="39"/>
-      <c r="G399" s="103"/>
-      <c r="H399" s="103"/>
-      <c r="I399" s="103"/>
+      <c r="G399" s="102"/>
+      <c r="H399" s="102"/>
+      <c r="I399" s="102"/>
       <c r="J399" s="82"/>
       <c r="K399" s="82"/>
       <c r="L399" s="13"/>
@@ -8963,14 +8978,14 @@
     <row r="400" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B400" s="18"/>
       <c r="C400" s="82"/>
-      <c r="D400" s="103"/>
+      <c r="D400" s="102"/>
       <c r="E400" s="82" t="s">
         <v>178</v>
       </c>
       <c r="F400" s="82"/>
-      <c r="G400" s="103"/>
-      <c r="H400" s="103"/>
-      <c r="I400" s="103"/>
+      <c r="G400" s="102"/>
+      <c r="H400" s="102"/>
+      <c r="I400" s="102"/>
       <c r="J400" s="82"/>
       <c r="K400" s="82"/>
       <c r="L400" s="13"/>
@@ -8979,14 +8994,14 @@
     <row r="401" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B401" s="18"/>
       <c r="C401" s="39"/>
-      <c r="D401" s="103"/>
+      <c r="D401" s="102"/>
       <c r="E401" s="39" t="s">
         <v>192</v>
       </c>
       <c r="F401" s="39"/>
-      <c r="G401" s="103"/>
-      <c r="H401" s="103"/>
-      <c r="I401" s="103"/>
+      <c r="G401" s="102"/>
+      <c r="H401" s="102"/>
+      <c r="I401" s="102"/>
       <c r="J401" s="82"/>
       <c r="K401" s="82"/>
       <c r="L401" s="13"/>
@@ -9001,7 +9016,7 @@
       <c r="H402" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="I402" s="103"/>
+      <c r="I402" s="102"/>
       <c r="J402" s="25"/>
       <c r="K402" s="25"/>
       <c r="L402" s="25"/>
@@ -9016,7 +9031,7 @@
       <c r="H403" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="I403" s="103"/>
+      <c r="I403" s="102"/>
       <c r="J403" s="25"/>
       <c r="K403" s="25"/>
       <c r="L403" s="25"/>
@@ -9031,7 +9046,7 @@
       <c r="H404" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="I404" s="103"/>
+      <c r="I404" s="102"/>
       <c r="J404" s="25"/>
       <c r="K404" s="25"/>
       <c r="L404" s="25"/>
@@ -9107,7 +9122,7 @@
         <v>199</v>
       </c>
       <c r="D409" s="79"/>
-      <c r="E409" s="103"/>
+      <c r="E409" s="102"/>
       <c r="F409" s="79" t="s">
         <v>200</v>
       </c>
@@ -9137,7 +9152,7 @@
       <c r="C411" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E411" s="120" t="s">
+      <c r="E411" s="119" t="s">
         <v>202</v>
       </c>
       <c r="F411" s="79"/>
@@ -9165,7 +9180,7 @@
       <c r="C413" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="E413" s="121"/>
+      <c r="E413" s="120"/>
       <c r="F413" s="79"/>
       <c r="G413" s="13"/>
       <c r="H413" s="25"/>
@@ -9191,21 +9206,21 @@
     </row>
     <row r="415" spans="2:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" s="18"/>
-      <c r="C415" s="192" t="s">
+      <c r="C415" s="193" t="s">
         <v>265</v>
       </c>
-      <c r="D415" s="194"/>
-      <c r="E415" s="192" t="s">
+      <c r="D415" s="195"/>
+      <c r="E415" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="F415" s="193"/>
-      <c r="G415" s="193"/>
-      <c r="H415" s="193"/>
-      <c r="I415" s="193"/>
-      <c r="J415" s="193"/>
-      <c r="K415" s="194"/>
-      <c r="L415" s="147"/>
-      <c r="M415" s="268" t="s">
+      <c r="F415" s="194"/>
+      <c r="G415" s="194"/>
+      <c r="H415" s="194"/>
+      <c r="I415" s="194"/>
+      <c r="J415" s="194"/>
+      <c r="K415" s="195"/>
+      <c r="L415" s="145"/>
+      <c r="M415" s="269" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9238,8 +9253,8 @@
       <c r="K416" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L416" s="160"/>
-      <c r="M416" s="269"/>
+      <c r="L416" s="158"/>
+      <c r="M416" s="270"/>
     </row>
     <row r="417" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" s="20"/>
@@ -9254,9 +9269,9 @@
       <c r="G417" s="82"/>
       <c r="H417" s="82"/>
       <c r="I417" s="82"/>
-      <c r="J417" s="103"/>
-      <c r="K417" s="122"/>
-      <c r="L417" s="122"/>
+      <c r="J417" s="102"/>
+      <c r="K417" s="121"/>
+      <c r="L417" s="121"/>
       <c r="M417" s="42"/>
     </row>
     <row r="418" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9272,9 +9287,9 @@
       <c r="G418" s="82"/>
       <c r="H418" s="82"/>
       <c r="I418" s="82"/>
-      <c r="J418" s="103"/>
-      <c r="K418" s="122"/>
-      <c r="L418" s="122"/>
+      <c r="J418" s="102"/>
+      <c r="K418" s="121"/>
+      <c r="L418" s="121"/>
       <c r="M418" s="42"/>
     </row>
     <row r="419" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9290,9 +9305,9 @@
       <c r="G419" s="82"/>
       <c r="H419" s="82"/>
       <c r="I419" s="82"/>
-      <c r="J419" s="103"/>
-      <c r="K419" s="122"/>
-      <c r="L419" s="122"/>
+      <c r="J419" s="102"/>
+      <c r="K419" s="121"/>
+      <c r="L419" s="121"/>
       <c r="M419" s="42"/>
     </row>
     <row r="420" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9308,7 +9323,7 @@
       <c r="K420" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="L420" s="153"/>
+      <c r="L420" s="151"/>
       <c r="M420" s="82"/>
     </row>
     <row r="421" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9322,7 +9337,7 @@
       <c r="I421" s="80"/>
       <c r="J421" s="80"/>
       <c r="K421" s="80"/>
-      <c r="L421" s="150"/>
+      <c r="L421" s="148"/>
       <c r="M421" s="80"/>
     </row>
     <row r="422" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9336,9 +9351,9 @@
       <c r="G422" s="82"/>
       <c r="H422" s="82"/>
       <c r="I422" s="82"/>
-      <c r="J422" s="103"/>
-      <c r="K422" s="103"/>
-      <c r="L422" s="103"/>
+      <c r="J422" s="102"/>
+      <c r="K422" s="102"/>
+      <c r="L422" s="102"/>
       <c r="M422" s="39"/>
     </row>
     <row r="423" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9352,9 +9367,9 @@
       <c r="G423" s="82"/>
       <c r="H423" s="82"/>
       <c r="I423" s="82"/>
-      <c r="J423" s="103"/>
-      <c r="K423" s="103"/>
-      <c r="L423" s="103"/>
+      <c r="J423" s="102"/>
+      <c r="K423" s="102"/>
+      <c r="L423" s="102"/>
       <c r="M423" s="39"/>
     </row>
     <row r="424" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9368,9 +9383,9 @@
       <c r="G424" s="82"/>
       <c r="H424" s="82"/>
       <c r="I424" s="82"/>
-      <c r="J424" s="103"/>
-      <c r="K424" s="103"/>
-      <c r="L424" s="103"/>
+      <c r="J424" s="102"/>
+      <c r="K424" s="102"/>
+      <c r="L424" s="102"/>
       <c r="M424" s="39"/>
     </row>
     <row r="425" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9386,7 +9401,7 @@
       <c r="K425" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="L425" s="153"/>
+      <c r="L425" s="151"/>
       <c r="M425" s="82"/>
     </row>
     <row r="426" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9400,7 +9415,7 @@
       <c r="I426" s="80"/>
       <c r="J426" s="80"/>
       <c r="K426" s="80"/>
-      <c r="L426" s="150"/>
+      <c r="L426" s="148"/>
       <c r="M426" s="80"/>
     </row>
     <row r="427" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9418,7 +9433,7 @@
       <c r="K427" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="L427" s="146"/>
+      <c r="L427" s="144"/>
       <c r="M427" s="46"/>
     </row>
     <row r="428" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9434,7 +9449,7 @@
       <c r="I428" s="80"/>
       <c r="J428" s="80"/>
       <c r="K428" s="80"/>
-      <c r="L428" s="150"/>
+      <c r="L428" s="148"/>
       <c r="M428" s="80"/>
     </row>
     <row r="429" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9448,7 +9463,7 @@
       <c r="I429" s="80"/>
       <c r="J429" s="80"/>
       <c r="K429" s="80"/>
-      <c r="L429" s="150"/>
+      <c r="L429" s="148"/>
       <c r="M429" s="80"/>
     </row>
     <row r="430" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9466,7 +9481,7 @@
       <c r="I430" s="80"/>
       <c r="J430" s="80"/>
       <c r="K430" s="80"/>
-      <c r="L430" s="150"/>
+      <c r="L430" s="148"/>
       <c r="M430" s="80"/>
     </row>
     <row r="431" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9480,28 +9495,28 @@
       <c r="I431" s="80"/>
       <c r="J431" s="80"/>
       <c r="K431" s="80"/>
-      <c r="L431" s="150"/>
+      <c r="L431" s="148"/>
       <c r="M431" s="80"/>
     </row>
     <row r="432" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" s="20"/>
-      <c r="C432" s="192" t="s">
+      <c r="C432" s="193" t="s">
         <v>265</v>
       </c>
-      <c r="D432" s="194"/>
-      <c r="E432" s="270" t="s">
+      <c r="D432" s="195"/>
+      <c r="E432" s="271" t="s">
         <v>214</v>
       </c>
-      <c r="F432" s="192" t="s">
+      <c r="F432" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="G432" s="193"/>
-      <c r="H432" s="193"/>
-      <c r="I432" s="193"/>
-      <c r="J432" s="193"/>
-      <c r="K432" s="194"/>
-      <c r="L432" s="147"/>
-      <c r="M432" s="268" t="s">
+      <c r="G432" s="194"/>
+      <c r="H432" s="194"/>
+      <c r="I432" s="194"/>
+      <c r="J432" s="194"/>
+      <c r="K432" s="195"/>
+      <c r="L432" s="145"/>
+      <c r="M432" s="269" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9513,7 +9528,7 @@
       <c r="D433" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E433" s="266"/>
+      <c r="E433" s="267"/>
       <c r="F433" s="75">
         <v>1</v>
       </c>
@@ -9532,8 +9547,8 @@
       <c r="K433" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="L433" s="160"/>
-      <c r="M433" s="269"/>
+      <c r="L433" s="158"/>
+      <c r="M433" s="270"/>
     </row>
     <row r="434" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" s="20"/>
@@ -9549,8 +9564,8 @@
       <c r="H434" s="82"/>
       <c r="I434" s="82"/>
       <c r="J434" s="4"/>
-      <c r="K434" s="123"/>
-      <c r="L434" s="123"/>
+      <c r="K434" s="122"/>
+      <c r="L434" s="122"/>
       <c r="M434" s="42"/>
     </row>
     <row r="435" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9567,8 +9582,8 @@
       <c r="H435" s="82"/>
       <c r="I435" s="82"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="123"/>
-      <c r="L435" s="123"/>
+      <c r="K435" s="122"/>
+      <c r="L435" s="122"/>
       <c r="M435" s="42"/>
     </row>
     <row r="436" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9585,8 +9600,8 @@
       <c r="H436" s="82"/>
       <c r="I436" s="82"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="123"/>
-      <c r="L436" s="123"/>
+      <c r="K436" s="122"/>
+      <c r="L436" s="122"/>
       <c r="M436" s="42"/>
     </row>
     <row r="437" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9600,7 +9615,7 @@
       <c r="I437" s="80"/>
       <c r="J437" s="80"/>
       <c r="K437" s="80"/>
-      <c r="L437" s="150"/>
+      <c r="L437" s="148"/>
       <c r="M437" s="80"/>
     </row>
     <row r="438" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9618,7 +9633,7 @@
       <c r="I438" s="80"/>
       <c r="J438" s="80"/>
       <c r="K438" s="80"/>
-      <c r="L438" s="150"/>
+      <c r="L438" s="148"/>
       <c r="M438" s="80"/>
     </row>
     <row r="439" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9632,7 +9647,7 @@
       <c r="I439" s="80"/>
       <c r="J439" s="80"/>
       <c r="K439" s="80"/>
-      <c r="L439" s="150"/>
+      <c r="L439" s="148"/>
       <c r="M439" s="80"/>
     </row>
     <row r="440" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9641,14 +9656,14 @@
         <v>217</v>
       </c>
       <c r="D440" s="79"/>
-      <c r="G440" s="103"/>
+      <c r="G440" s="102"/>
       <c r="H440" s="79" t="s">
         <v>200</v>
       </c>
       <c r="I440" s="80"/>
       <c r="J440" s="80"/>
       <c r="K440" s="80"/>
-      <c r="L440" s="150"/>
+      <c r="L440" s="148"/>
       <c r="M440" s="80"/>
     </row>
     <row r="441" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9660,7 +9675,7 @@
       <c r="I441" s="80"/>
       <c r="J441" s="80"/>
       <c r="K441" s="80"/>
-      <c r="L441" s="150"/>
+      <c r="L441" s="148"/>
       <c r="M441" s="80"/>
     </row>
     <row r="442" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9669,14 +9684,14 @@
         <v>201</v>
       </c>
       <c r="D442" s="19"/>
-      <c r="G442" s="120" t="s">
+      <c r="G442" s="119" t="s">
         <v>218</v>
       </c>
       <c r="H442" s="79"/>
       <c r="I442" s="80"/>
       <c r="J442" s="80"/>
       <c r="K442" s="80"/>
-      <c r="L442" s="150"/>
+      <c r="L442" s="148"/>
       <c r="M442" s="80"/>
     </row>
     <row r="443" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9688,7 +9703,7 @@
       <c r="I443" s="80"/>
       <c r="J443" s="80"/>
       <c r="K443" s="80"/>
-      <c r="L443" s="150"/>
+      <c r="L443" s="148"/>
       <c r="M443" s="80"/>
     </row>
     <row r="444" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9697,12 +9712,12 @@
         <v>203</v>
       </c>
       <c r="D444" s="19"/>
-      <c r="G444" s="121"/>
+      <c r="G444" s="120"/>
       <c r="H444" s="79"/>
       <c r="I444" s="80"/>
       <c r="J444" s="80"/>
       <c r="K444" s="80"/>
-      <c r="L444" s="150"/>
+      <c r="L444" s="148"/>
       <c r="M444" s="80"/>
     </row>
     <row r="445" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9716,31 +9731,31 @@
       <c r="I445" s="80"/>
       <c r="J445" s="80"/>
       <c r="K445" s="80"/>
-      <c r="L445" s="150"/>
+      <c r="L445" s="148"/>
       <c r="M445" s="80"/>
     </row>
     <row r="446" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B446" s="20"/>
-      <c r="C446" s="271" t="s">
+      <c r="C446" s="272" t="s">
         <v>59</v>
       </c>
-      <c r="D446" s="272"/>
-      <c r="E446" s="192" t="s">
+      <c r="D446" s="273"/>
+      <c r="E446" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="F446" s="193"/>
-      <c r="G446" s="193"/>
-      <c r="H446" s="193"/>
-      <c r="I446" s="193"/>
-      <c r="J446" s="193"/>
-      <c r="K446" s="194"/>
+      <c r="F446" s="194"/>
+      <c r="G446" s="194"/>
+      <c r="H446" s="194"/>
+      <c r="I446" s="194"/>
+      <c r="J446" s="194"/>
+      <c r="K446" s="195"/>
       <c r="L446" s="22"/>
-      <c r="M446" s="275"/>
+      <c r="M446" s="276"/>
     </row>
     <row r="447" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B447" s="20"/>
-      <c r="C447" s="273"/>
-      <c r="D447" s="274"/>
+      <c r="C447" s="274"/>
+      <c r="D447" s="275"/>
       <c r="E447" s="75">
         <v>1</v>
       </c>
@@ -9763,14 +9778,14 @@
         <v>180</v>
       </c>
       <c r="L447" s="22"/>
-      <c r="M447" s="275"/>
+      <c r="M447" s="276"/>
     </row>
     <row r="448" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B448" s="20"/>
-      <c r="C448" s="208" t="s">
+      <c r="C448" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="D448" s="209"/>
+      <c r="D448" s="210"/>
       <c r="E448" s="82"/>
       <c r="F448" s="82"/>
       <c r="G448" s="82"/>
@@ -9782,10 +9797,10 @@
     </row>
     <row r="449" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B449" s="20"/>
-      <c r="C449" s="208" t="s">
+      <c r="C449" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="D449" s="209"/>
+      <c r="D449" s="210"/>
       <c r="E449" s="82"/>
       <c r="F449" s="82"/>
       <c r="G449" s="82"/>
@@ -9797,10 +9812,10 @@
     </row>
     <row r="450" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" s="20"/>
-      <c r="C450" s="208" t="s">
+      <c r="C450" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="D450" s="209"/>
+      <c r="D450" s="210"/>
       <c r="E450" s="82"/>
       <c r="F450" s="82"/>
       <c r="G450" s="82"/>
@@ -9812,10 +9827,10 @@
     </row>
     <row r="451" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" s="20"/>
-      <c r="C451" s="192" t="s">
+      <c r="C451" s="193" t="s">
         <v>210</v>
       </c>
-      <c r="D451" s="194"/>
+      <c r="D451" s="195"/>
       <c r="E451" s="46"/>
       <c r="F451" s="46"/>
       <c r="G451" s="46"/>
@@ -9837,7 +9852,7 @@
       <c r="I452" s="80"/>
       <c r="J452" s="80"/>
       <c r="K452" s="80"/>
-      <c r="L452" s="150"/>
+      <c r="L452" s="148"/>
       <c r="M452" s="80"/>
     </row>
     <row r="453" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9847,7 +9862,7 @@
       <c r="C453" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D453" s="124"/>
+      <c r="D453" s="123"/>
       <c r="E453" s="25"/>
       <c r="F453" s="25"/>
       <c r="G453" s="79"/>
@@ -9855,7 +9870,7 @@
       <c r="I453" s="25"/>
       <c r="J453" s="80"/>
       <c r="K453" s="80"/>
-      <c r="L453" s="150"/>
+      <c r="L453" s="148"/>
       <c r="M453" s="80"/>
     </row>
     <row r="454" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9869,7 +9884,7 @@
       <c r="I454" s="79"/>
       <c r="J454" s="80"/>
       <c r="K454" s="80"/>
-      <c r="L454" s="150"/>
+      <c r="L454" s="148"/>
       <c r="M454" s="80"/>
     </row>
     <row r="455" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9885,7 +9900,7 @@
       <c r="I455" s="79"/>
       <c r="J455" s="80"/>
       <c r="K455" s="80"/>
-      <c r="L455" s="150"/>
+      <c r="L455" s="148"/>
       <c r="M455" s="80"/>
     </row>
     <row r="456" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9899,7 +9914,7 @@
       <c r="I456" s="79"/>
       <c r="J456" s="80"/>
       <c r="K456" s="80"/>
-      <c r="L456" s="150"/>
+      <c r="L456" s="148"/>
       <c r="M456" s="80"/>
     </row>
     <row r="457" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9913,7 +9928,7 @@
       <c r="I457" s="79"/>
       <c r="J457" s="80"/>
       <c r="K457" s="80"/>
-      <c r="L457" s="150"/>
+      <c r="L457" s="148"/>
       <c r="M457" s="80"/>
     </row>
     <row r="458" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9927,7 +9942,7 @@
       <c r="I458" s="79"/>
       <c r="J458" s="80"/>
       <c r="K458" s="80"/>
-      <c r="L458" s="150"/>
+      <c r="L458" s="148"/>
       <c r="M458" s="80"/>
     </row>
     <row r="459" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9941,7 +9956,7 @@
       <c r="I459" s="79"/>
       <c r="J459" s="80"/>
       <c r="K459" s="80"/>
-      <c r="L459" s="150"/>
+      <c r="L459" s="148"/>
       <c r="M459" s="80"/>
     </row>
     <row r="460" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9955,7 +9970,7 @@
       <c r="I460" s="80"/>
       <c r="J460" s="80"/>
       <c r="K460" s="80"/>
-      <c r="L460" s="150"/>
+      <c r="L460" s="148"/>
       <c r="M460" s="80"/>
     </row>
     <row r="461" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9965,7 +9980,7 @@
       <c r="C461" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D461" s="124"/>
+      <c r="D461" s="123"/>
       <c r="E461" s="25"/>
       <c r="F461" s="25"/>
       <c r="G461" s="80"/>
@@ -9973,7 +9988,7 @@
       <c r="I461" s="80"/>
       <c r="J461" s="80"/>
       <c r="K461" s="80"/>
-      <c r="L461" s="150"/>
+      <c r="L461" s="148"/>
       <c r="M461" s="80"/>
     </row>
     <row r="462" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -9987,7 +10002,7 @@
       <c r="I462" s="80"/>
       <c r="J462" s="80"/>
       <c r="K462" s="80"/>
-      <c r="L462" s="150"/>
+      <c r="L462" s="148"/>
       <c r="M462" s="80"/>
     </row>
     <row r="463" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10005,7 +10020,7 @@
       <c r="I463" s="80"/>
       <c r="J463" s="80"/>
       <c r="K463" s="80"/>
-      <c r="L463" s="150"/>
+      <c r="L463" s="148"/>
       <c r="M463" s="80"/>
     </row>
     <row r="464" spans="2:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10021,7 +10036,7 @@
       <c r="I464" s="80"/>
       <c r="J464" s="80"/>
       <c r="K464" s="80"/>
-      <c r="L464" s="150"/>
+      <c r="L464" s="148"/>
       <c r="M464" s="80"/>
     </row>
     <row r="465" spans="2:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10037,7 +10052,7 @@
       <c r="I465" s="80"/>
       <c r="J465" s="80"/>
       <c r="K465" s="80"/>
-      <c r="L465" s="150"/>
+      <c r="L465" s="148"/>
       <c r="M465" s="80"/>
     </row>
     <row r="466" spans="2:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10053,7 +10068,7 @@
       <c r="I466" s="80"/>
       <c r="J466" s="80"/>
       <c r="K466" s="80"/>
-      <c r="L466" s="150"/>
+      <c r="L466" s="148"/>
       <c r="M466" s="80"/>
     </row>
     <row r="467" spans="2:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10069,7 +10084,7 @@
       <c r="I467" s="80"/>
       <c r="J467" s="80"/>
       <c r="K467" s="80"/>
-      <c r="L467" s="150"/>
+      <c r="L467" s="148"/>
       <c r="M467" s="80"/>
     </row>
     <row r="468" spans="2:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10085,7 +10100,7 @@
       <c r="I468" s="80"/>
       <c r="J468" s="80"/>
       <c r="K468" s="80"/>
-      <c r="L468" s="150"/>
+      <c r="L468" s="148"/>
       <c r="M468" s="80"/>
     </row>
     <row r="469" spans="2:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -10099,24 +10114,24 @@
       <c r="I469" s="80"/>
       <c r="J469" s="80"/>
       <c r="K469" s="80"/>
-      <c r="L469" s="150"/>
+      <c r="L469" s="148"/>
       <c r="M469" s="80"/>
     </row>
     <row r="470" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B470" s="125" t="s">
+      <c r="B470" s="124" t="s">
         <v>237</v>
       </c>
-      <c r="C470" s="126"/>
-      <c r="D470" s="126"/>
-      <c r="E470" s="126"/>
-      <c r="F470" s="126"/>
-      <c r="G470" s="126"/>
-      <c r="H470" s="126"/>
-      <c r="I470" s="126"/>
-      <c r="J470" s="127"/>
-      <c r="K470" s="127"/>
-      <c r="L470" s="127"/>
-      <c r="M470" s="127"/>
+      <c r="C470" s="125"/>
+      <c r="D470" s="125"/>
+      <c r="E470" s="125"/>
+      <c r="F470" s="125"/>
+      <c r="G470" s="125"/>
+      <c r="H470" s="125"/>
+      <c r="I470" s="125"/>
+      <c r="J470" s="126"/>
+      <c r="K470" s="126"/>
+      <c r="L470" s="126"/>
+      <c r="M470" s="126"/>
     </row>
     <row r="471" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B471" s="19"/>
@@ -10129,7 +10144,7 @@
       <c r="I471" s="19"/>
       <c r="J471" s="80"/>
       <c r="K471" s="80"/>
-      <c r="L471" s="150"/>
+      <c r="L471" s="148"/>
       <c r="M471" s="80"/>
     </row>
     <row r="472" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10143,7 +10158,7 @@
       <c r="I472" s="19"/>
       <c r="J472" s="80"/>
       <c r="K472" s="80"/>
-      <c r="L472" s="150"/>
+      <c r="L472" s="148"/>
       <c r="M472" s="80"/>
     </row>
     <row r="473" spans="2:14" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -10151,18 +10166,18 @@
         <v>238</v>
       </c>
       <c r="C473" s="80"/>
-      <c r="E473" s="276" t="s">
+      <c r="E473" s="279" t="s">
         <v>328</v>
       </c>
-      <c r="F473" s="276"/>
-      <c r="G473" s="276"/>
-      <c r="H473" s="276"/>
-      <c r="I473" s="276"/>
-      <c r="J473" s="276"/>
-      <c r="K473" s="276"/>
-      <c r="L473" s="276"/>
-      <c r="M473" s="276"/>
-      <c r="N473" s="136"/>
+      <c r="F473" s="279"/>
+      <c r="G473" s="279"/>
+      <c r="H473" s="279"/>
+      <c r="I473" s="279"/>
+      <c r="J473" s="279"/>
+      <c r="K473" s="279"/>
+      <c r="L473" s="279"/>
+      <c r="M473" s="279"/>
+      <c r="N473" s="134"/>
     </row>
     <row r="474" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B474" s="19"/>
@@ -10175,7 +10190,7 @@
       <c r="I474" s="19"/>
       <c r="J474" s="80"/>
       <c r="K474" s="80"/>
-      <c r="L474" s="150"/>
+      <c r="L474" s="148"/>
       <c r="M474" s="80"/>
     </row>
     <row r="475" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10191,71 +10206,71 @@
       <c r="I475" s="19"/>
       <c r="J475" s="80"/>
       <c r="K475" s="80"/>
-      <c r="L475" s="150"/>
+      <c r="L475" s="148"/>
       <c r="M475" s="80"/>
     </row>
     <row r="476" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
-      <c r="D476" s="266" t="s">
+      <c r="D476" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="E476" s="266"/>
+      <c r="E476" s="267"/>
       <c r="F476" s="19"/>
       <c r="G476" s="19"/>
       <c r="H476" s="19"/>
       <c r="I476" s="19"/>
       <c r="J476" s="80"/>
       <c r="K476" s="80"/>
-      <c r="L476" s="150"/>
+      <c r="L476" s="148"/>
       <c r="M476" s="80"/>
     </row>
     <row r="477" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B477" s="79"/>
-      <c r="C477" s="169" t="s">
+      <c r="C477" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="D477" s="169" t="s">
+      <c r="D477" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="E477" s="169" t="s">
+      <c r="E477" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="F477" s="169" t="s">
+      <c r="F477" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="G477" s="268" t="s">
+      <c r="G477" s="269" t="s">
         <v>183</v>
       </c>
-      <c r="H477" s="268" t="s">
+      <c r="H477" s="269" t="s">
         <v>176</v>
       </c>
-      <c r="I477" s="268" t="s">
+      <c r="I477" s="277" t="s">
         <v>184</v>
       </c>
-      <c r="J477" s="203" t="s">
+      <c r="J477" s="204" t="s">
         <v>240</v>
       </c>
-      <c r="K477" s="204"/>
-      <c r="L477" s="204"/>
-      <c r="M477" s="205"/>
+      <c r="K477" s="205"/>
+      <c r="L477" s="205"/>
+      <c r="M477" s="206"/>
     </row>
     <row r="478" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B478" s="79"/>
-      <c r="C478" s="169"/>
-      <c r="D478" s="169"/>
-      <c r="E478" s="169"/>
-      <c r="F478" s="169"/>
-      <c r="G478" s="269"/>
-      <c r="H478" s="269"/>
-      <c r="I478" s="269"/>
+      <c r="C478" s="170"/>
+      <c r="D478" s="170"/>
+      <c r="E478" s="170"/>
+      <c r="F478" s="170"/>
+      <c r="G478" s="270"/>
+      <c r="H478" s="270"/>
+      <c r="I478" s="278"/>
       <c r="J478" s="77" t="s">
         <v>241</v>
       </c>
       <c r="K478" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="L478" s="148" t="s">
+      <c r="L478" s="146" t="s">
         <v>327</v>
       </c>
       <c r="M478" s="77" t="s">
@@ -10268,7 +10283,7 @@
       <c r="C479" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="D479" s="103" t="s">
+      <c r="D479" s="102" t="s">
         <v>319</v>
       </c>
       <c r="E479" s="39" t="s">
@@ -10280,35 +10295,35 @@
       <c r="G479" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="H479" s="133">
+      <c r="H479" s="131">
         <v>1072.23</v>
       </c>
-      <c r="I479" s="128">
+      <c r="I479" s="159">
         <v>353314.44</v>
       </c>
       <c r="J479" s="59"/>
-      <c r="K479" s="128">
+      <c r="K479" s="127">
         <f>+I479/2</f>
         <v>176657.22</v>
       </c>
-      <c r="L479" s="128">
+      <c r="L479" s="127">
         <f>+I479/2</f>
         <v>176657.22</v>
       </c>
-      <c r="M479" s="128"/>
+      <c r="M479" s="127"/>
       <c r="N479" s="80"/>
     </row>
     <row r="480" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B480" s="79"/>
       <c r="C480" s="39"/>
-      <c r="D480" s="103"/>
+      <c r="D480" s="102"/>
       <c r="E480" s="39" t="s">
         <v>189</v>
       </c>
       <c r="F480" s="39"/>
       <c r="G480" s="39"/>
       <c r="H480" s="39"/>
-      <c r="I480" s="85"/>
+      <c r="I480" s="160"/>
       <c r="J480" s="59"/>
       <c r="K480" s="59"/>
       <c r="L480" s="59"/>
@@ -10318,69 +10333,69 @@
     <row r="481" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B481" s="79"/>
       <c r="C481" s="39"/>
-      <c r="D481" s="103"/>
+      <c r="D481" s="102"/>
       <c r="E481" s="39" t="s">
         <v>190</v>
       </c>
       <c r="F481" s="39"/>
-      <c r="G481" s="103"/>
-      <c r="H481" s="103"/>
-      <c r="I481" s="128"/>
-      <c r="J481" s="103"/>
-      <c r="K481" s="103"/>
-      <c r="L481" s="103"/>
-      <c r="M481" s="103"/>
+      <c r="G481" s="102"/>
+      <c r="H481" s="102"/>
+      <c r="I481" s="161"/>
+      <c r="J481" s="102"/>
+      <c r="K481" s="102"/>
+      <c r="L481" s="102"/>
+      <c r="M481" s="102"/>
       <c r="N481" s="80"/>
     </row>
     <row r="482" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B482" s="79"/>
       <c r="C482" s="39"/>
-      <c r="D482" s="103"/>
+      <c r="D482" s="102"/>
       <c r="E482" s="39" t="s">
         <v>191</v>
       </c>
       <c r="F482" s="39"/>
-      <c r="G482" s="103"/>
-      <c r="H482" s="103"/>
-      <c r="I482" s="128"/>
-      <c r="J482" s="103"/>
-      <c r="K482" s="103"/>
-      <c r="L482" s="103"/>
-      <c r="M482" s="103"/>
+      <c r="G482" s="102"/>
+      <c r="H482" s="46"/>
+      <c r="I482" s="161"/>
+      <c r="J482" s="102"/>
+      <c r="K482" s="102"/>
+      <c r="L482" s="102"/>
+      <c r="M482" s="102"/>
       <c r="N482" s="80"/>
     </row>
     <row r="483" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B483" s="79"/>
       <c r="C483" s="82"/>
-      <c r="D483" s="103"/>
+      <c r="D483" s="102"/>
       <c r="E483" s="82" t="s">
         <v>178</v>
       </c>
       <c r="F483" s="82"/>
-      <c r="G483" s="103"/>
-      <c r="H483" s="103"/>
-      <c r="I483" s="128"/>
-      <c r="J483" s="103"/>
-      <c r="K483" s="103"/>
-      <c r="L483" s="103"/>
-      <c r="M483" s="103"/>
+      <c r="G483" s="102"/>
+      <c r="H483" s="102"/>
+      <c r="I483" s="161"/>
+      <c r="J483" s="102"/>
+      <c r="K483" s="102"/>
+      <c r="L483" s="102"/>
+      <c r="M483" s="102"/>
       <c r="N483" s="80"/>
     </row>
     <row r="484" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B484" s="79"/>
       <c r="C484" s="39"/>
-      <c r="D484" s="103"/>
+      <c r="D484" s="102"/>
       <c r="E484" s="39" t="s">
         <v>192</v>
       </c>
       <c r="F484" s="39"/>
-      <c r="G484" s="103"/>
-      <c r="H484" s="103"/>
-      <c r="I484" s="128"/>
-      <c r="J484" s="103"/>
-      <c r="K484" s="103"/>
-      <c r="L484" s="103"/>
-      <c r="M484" s="103"/>
+      <c r="G484" s="102"/>
+      <c r="H484" s="102"/>
+      <c r="I484" s="161"/>
+      <c r="J484" s="102"/>
+      <c r="K484" s="102"/>
+      <c r="L484" s="102"/>
+      <c r="M484" s="102"/>
       <c r="N484" s="80"/>
     </row>
     <row r="485" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10389,19 +10404,19 @@
       <c r="D485" s="80"/>
       <c r="E485" s="80"/>
       <c r="F485" s="40"/>
-      <c r="G485" s="211" t="s">
+      <c r="G485" s="212" t="s">
         <v>277</v>
       </c>
-      <c r="H485" s="212"/>
-      <c r="I485" s="128">
+      <c r="H485" s="213"/>
+      <c r="I485" s="159">
         <v>10000</v>
       </c>
-      <c r="J485" s="128">
+      <c r="J485" s="127">
         <v>10000</v>
       </c>
-      <c r="K485" s="103"/>
-      <c r="L485" s="103"/>
-      <c r="M485" s="103"/>
+      <c r="K485" s="102"/>
+      <c r="L485" s="102"/>
+      <c r="M485" s="102"/>
       <c r="N485" s="80"/>
     </row>
     <row r="486" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10410,23 +10425,23 @@
       <c r="D486" s="80"/>
       <c r="E486" s="80"/>
       <c r="F486" s="40"/>
-      <c r="G486" s="208" t="s">
+      <c r="G486" s="209" t="s">
         <v>278</v>
       </c>
-      <c r="H486" s="209"/>
-      <c r="I486" s="128">
+      <c r="H486" s="210"/>
+      <c r="I486" s="159">
         <v>24961.5</v>
       </c>
-      <c r="J486" s="103"/>
-      <c r="K486" s="103">
+      <c r="J486" s="102"/>
+      <c r="K486" s="102">
         <f>+I486/2</f>
         <v>12480.75</v>
       </c>
-      <c r="L486" s="103">
+      <c r="L486" s="102">
         <f>+I486/2</f>
         <v>12480.75</v>
       </c>
-      <c r="M486" s="103"/>
+      <c r="M486" s="102"/>
       <c r="N486" s="80"/>
     </row>
     <row r="487" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10435,17 +10450,17 @@
       <c r="D487" s="80"/>
       <c r="E487" s="80"/>
       <c r="F487" s="40"/>
-      <c r="G487" s="208" t="s">
+      <c r="G487" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="H487" s="209"/>
-      <c r="I487" s="128">
+      <c r="H487" s="210"/>
+      <c r="I487" s="159">
         <v>17290.75</v>
       </c>
-      <c r="J487" s="103"/>
-      <c r="K487" s="103"/>
-      <c r="L487" s="103"/>
-      <c r="M487" s="128">
+      <c r="J487" s="102"/>
+      <c r="K487" s="102"/>
+      <c r="L487" s="102"/>
+      <c r="M487" s="127">
         <f>+I487</f>
         <v>17290.75</v>
       </c>
@@ -10457,18 +10472,18 @@
       <c r="D488" s="80"/>
       <c r="E488" s="80"/>
       <c r="F488" s="40"/>
-      <c r="G488" s="192" t="s">
+      <c r="G488" s="193" t="s">
         <v>196</v>
       </c>
-      <c r="H488" s="194"/>
-      <c r="I488" s="129">
+      <c r="H488" s="195"/>
+      <c r="I488" s="159">
         <f>SUM(I479:I487)</f>
         <v>405566.69</v>
       </c>
-      <c r="J488" s="103"/>
-      <c r="K488" s="103"/>
-      <c r="L488" s="103"/>
-      <c r="M488" s="103"/>
+      <c r="J488" s="102"/>
+      <c r="K488" s="102"/>
+      <c r="L488" s="102"/>
+      <c r="M488" s="102"/>
       <c r="N488" s="80"/>
     </row>
     <row r="489" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10482,7 +10497,7 @@
       <c r="I489" s="80"/>
       <c r="J489" s="80"/>
       <c r="K489" s="80"/>
-      <c r="L489" s="150"/>
+      <c r="L489" s="148"/>
       <c r="M489" s="80"/>
       <c r="N489" s="80"/>
     </row>
@@ -10497,7 +10512,7 @@
       <c r="I490" s="80"/>
       <c r="J490" s="80"/>
       <c r="K490" s="80"/>
-      <c r="L490" s="150"/>
+      <c r="L490" s="148"/>
       <c r="M490" s="80"/>
       <c r="N490" s="80"/>
     </row>
@@ -10516,7 +10531,7 @@
       <c r="I491" s="80"/>
       <c r="J491" s="80"/>
       <c r="K491" s="80"/>
-      <c r="L491" s="150"/>
+      <c r="L491" s="148"/>
       <c r="M491" s="80"/>
       <c r="N491" s="80"/>
     </row>
@@ -10531,7 +10546,7 @@
       <c r="I492" s="80"/>
       <c r="J492" s="80"/>
       <c r="K492" s="80"/>
-      <c r="L492" s="150"/>
+      <c r="L492" s="148"/>
       <c r="M492" s="80"/>
       <c r="N492" s="80"/>
     </row>
@@ -10543,14 +10558,14 @@
       <c r="D493" s="79"/>
       <c r="E493" s="80"/>
       <c r="F493" s="80"/>
-      <c r="G493" s="120" t="s">
+      <c r="G493" s="119" t="s">
         <v>337</v>
       </c>
       <c r="H493" s="79"/>
       <c r="I493" s="80"/>
       <c r="J493" s="80"/>
       <c r="K493" s="80"/>
-      <c r="L493" s="150"/>
+      <c r="L493" s="148"/>
       <c r="M493" s="80"/>
       <c r="N493" s="80"/>
     </row>
@@ -10565,7 +10580,7 @@
       <c r="I494" s="80"/>
       <c r="J494" s="80"/>
       <c r="K494" s="80"/>
-      <c r="L494" s="150"/>
+      <c r="L494" s="148"/>
       <c r="M494" s="80"/>
       <c r="N494" s="80"/>
     </row>
@@ -10577,14 +10592,14 @@
       <c r="D495" s="79"/>
       <c r="E495" s="80"/>
       <c r="F495" s="80"/>
-      <c r="G495" s="121">
+      <c r="G495" s="120">
         <v>10</v>
       </c>
       <c r="H495" s="79"/>
       <c r="I495" s="80"/>
       <c r="J495" s="80"/>
       <c r="K495" s="80"/>
-      <c r="L495" s="150"/>
+      <c r="L495" s="148"/>
       <c r="M495" s="80"/>
       <c r="N495" s="80"/>
     </row>
@@ -10599,33 +10614,33 @@
       <c r="I496" s="80"/>
       <c r="J496" s="80"/>
       <c r="K496" s="80"/>
-      <c r="L496" s="150"/>
+      <c r="L496" s="148"/>
       <c r="M496" s="80"/>
       <c r="N496" s="80"/>
     </row>
     <row r="497" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B497" s="20"/>
-      <c r="C497" s="271" t="s">
+      <c r="C497" s="272" t="s">
         <v>59</v>
       </c>
-      <c r="D497" s="272"/>
-      <c r="E497" s="192" t="s">
+      <c r="D497" s="273"/>
+      <c r="E497" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="F497" s="193"/>
-      <c r="G497" s="193"/>
-      <c r="H497" s="193"/>
-      <c r="I497" s="193"/>
-      <c r="J497" s="193"/>
-      <c r="K497" s="194"/>
+      <c r="F497" s="194"/>
+      <c r="G497" s="194"/>
+      <c r="H497" s="194"/>
+      <c r="I497" s="194"/>
+      <c r="J497" s="194"/>
+      <c r="K497" s="195"/>
       <c r="L497" s="22"/>
-      <c r="M497" s="275"/>
+      <c r="M497" s="276"/>
       <c r="N497" s="80"/>
     </row>
     <row r="498" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B498" s="20"/>
-      <c r="C498" s="273"/>
-      <c r="D498" s="274"/>
+      <c r="C498" s="274"/>
+      <c r="D498" s="275"/>
       <c r="E498" s="75">
         <v>1</v>
       </c>
@@ -10648,65 +10663,65 @@
         <v>10</v>
       </c>
       <c r="L498" s="22"/>
-      <c r="M498" s="275"/>
+      <c r="M498" s="276"/>
       <c r="N498" s="80"/>
     </row>
     <row r="499" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B499" s="20"/>
-      <c r="C499" s="208" t="s">
+      <c r="C499" s="209" t="s">
         <v>324</v>
       </c>
-      <c r="D499" s="209"/>
-      <c r="E499" s="103"/>
-      <c r="F499" s="103">
+      <c r="D499" s="210"/>
+      <c r="E499" s="102"/>
+      <c r="F499" s="102">
         <v>3022.41</v>
       </c>
-      <c r="G499" s="103"/>
-      <c r="H499" s="103">
+      <c r="G499" s="102"/>
+      <c r="H499" s="102">
         <v>3022.41</v>
       </c>
-      <c r="I499" s="103"/>
-      <c r="J499" s="103">
+      <c r="I499" s="102"/>
+      <c r="J499" s="102">
         <v>3022.41</v>
       </c>
-      <c r="K499" s="103">
+      <c r="K499" s="102">
         <v>3022.41</v>
       </c>
-      <c r="L499" s="150"/>
+      <c r="L499" s="148"/>
       <c r="M499" s="40"/>
       <c r="N499" s="80"/>
     </row>
     <row r="500" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B500" s="20"/>
-      <c r="C500" s="208" t="s">
+      <c r="C500" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="D500" s="209"/>
+      <c r="D500" s="210"/>
       <c r="E500" s="82"/>
       <c r="F500" s="82"/>
       <c r="G500" s="82"/>
       <c r="H500" s="82"/>
       <c r="I500" s="82"/>
-      <c r="J500" s="103"/>
-      <c r="K500" s="103"/>
-      <c r="L500" s="150"/>
+      <c r="J500" s="102"/>
+      <c r="K500" s="102"/>
+      <c r="L500" s="148"/>
       <c r="M500" s="40"/>
       <c r="N500" s="80"/>
     </row>
     <row r="501" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B501" s="20"/>
-      <c r="C501" s="208" t="s">
+      <c r="C501" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="D501" s="209"/>
+      <c r="D501" s="210"/>
       <c r="E501" s="82"/>
       <c r="F501" s="82"/>
       <c r="G501" s="82"/>
       <c r="H501" s="82"/>
       <c r="I501" s="82"/>
-      <c r="J501" s="103"/>
-      <c r="K501" s="103"/>
-      <c r="L501" s="150"/>
+      <c r="J501" s="102"/>
+      <c r="K501" s="102"/>
+      <c r="L501" s="148"/>
       <c r="M501" s="40"/>
       <c r="N501" s="80"/>
     </row>
@@ -10721,7 +10736,7 @@
       <c r="I502" s="80"/>
       <c r="J502" s="80"/>
       <c r="K502" s="80"/>
-      <c r="L502" s="150"/>
+      <c r="L502" s="148"/>
       <c r="M502" s="80"/>
       <c r="N502" s="80"/>
     </row>
@@ -10736,7 +10751,7 @@
       <c r="I503" s="80"/>
       <c r="J503" s="80"/>
       <c r="K503" s="80"/>
-      <c r="L503" s="150"/>
+      <c r="L503" s="148"/>
       <c r="M503" s="80"/>
       <c r="N503" s="80"/>
     </row>
@@ -10747,7 +10762,7 @@
       <c r="C504" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D504" s="124"/>
+      <c r="D504" s="123"/>
       <c r="E504" s="25"/>
       <c r="F504" s="25"/>
       <c r="G504" s="80"/>
@@ -10755,7 +10770,7 @@
       <c r="I504" s="80"/>
       <c r="J504" s="80"/>
       <c r="K504" s="80"/>
-      <c r="L504" s="150"/>
+      <c r="L504" s="148"/>
       <c r="M504" s="80"/>
       <c r="N504" s="80"/>
     </row>
@@ -10770,7 +10785,7 @@
       <c r="I505" s="80"/>
       <c r="J505" s="80"/>
       <c r="K505" s="80"/>
-      <c r="L505" s="150"/>
+      <c r="L505" s="148"/>
       <c r="M505" s="80"/>
       <c r="N505" s="80"/>
     </row>
@@ -10789,7 +10804,7 @@
       <c r="I506" s="80"/>
       <c r="J506" s="80"/>
       <c r="K506" s="80"/>
-      <c r="L506" s="150"/>
+      <c r="L506" s="148"/>
       <c r="M506" s="80"/>
       <c r="N506" s="80"/>
     </row>
@@ -10808,7 +10823,7 @@
       <c r="I507" s="80"/>
       <c r="J507" s="80"/>
       <c r="K507" s="80"/>
-      <c r="L507" s="150"/>
+      <c r="L507" s="148"/>
       <c r="M507" s="80"/>
       <c r="N507" s="80"/>
     </row>
@@ -10825,7 +10840,7 @@
       <c r="I508" s="80"/>
       <c r="J508" s="80"/>
       <c r="K508" s="80"/>
-      <c r="L508" s="150"/>
+      <c r="L508" s="148"/>
       <c r="M508" s="80"/>
       <c r="N508" s="80"/>
     </row>
@@ -10842,7 +10857,7 @@
       <c r="I509" s="80"/>
       <c r="J509" s="80"/>
       <c r="K509" s="80"/>
-      <c r="L509" s="150"/>
+      <c r="L509" s="148"/>
       <c r="M509" s="80"/>
       <c r="N509" s="80"/>
     </row>
@@ -10859,54 +10874,54 @@
       <c r="I510" s="80"/>
       <c r="J510" s="80"/>
       <c r="K510" s="80"/>
-      <c r="L510" s="150"/>
+      <c r="L510" s="148"/>
       <c r="M510" s="80"/>
       <c r="N510" s="80"/>
     </row>
     <row r="511" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B511" s="20"/>
-      <c r="C511" s="142"/>
-      <c r="D511" s="142"/>
-      <c r="E511" s="142"/>
+      <c r="C511" s="140"/>
+      <c r="D511" s="140"/>
+      <c r="E511" s="140"/>
       <c r="F511" s="13"/>
-      <c r="G511" s="142"/>
-      <c r="H511" s="142"/>
-      <c r="I511" s="142"/>
-      <c r="J511" s="142"/>
-      <c r="K511" s="142"/>
-      <c r="L511" s="150"/>
-      <c r="M511" s="142"/>
-      <c r="N511" s="142"/>
+      <c r="G511" s="140"/>
+      <c r="H511" s="140"/>
+      <c r="I511" s="140"/>
+      <c r="J511" s="140"/>
+      <c r="K511" s="140"/>
+      <c r="L511" s="148"/>
+      <c r="M511" s="140"/>
+      <c r="N511" s="140"/>
     </row>
     <row r="512" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B512" s="20"/>
-      <c r="C512" s="142"/>
-      <c r="D512" s="142"/>
-      <c r="E512" s="142"/>
+      <c r="C512" s="140"/>
+      <c r="D512" s="140"/>
+      <c r="E512" s="140"/>
       <c r="F512" s="13"/>
-      <c r="G512" s="142"/>
-      <c r="H512" s="142"/>
-      <c r="I512" s="142"/>
-      <c r="J512" s="142"/>
-      <c r="K512" s="142"/>
-      <c r="L512" s="150"/>
-      <c r="M512" s="142"/>
-      <c r="N512" s="142"/>
+      <c r="G512" s="140"/>
+      <c r="H512" s="140"/>
+      <c r="I512" s="140"/>
+      <c r="J512" s="140"/>
+      <c r="K512" s="140"/>
+      <c r="L512" s="148"/>
+      <c r="M512" s="140"/>
+      <c r="N512" s="140"/>
     </row>
     <row r="513" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B513" s="20"/>
-      <c r="C513" s="142"/>
-      <c r="D513" s="142"/>
-      <c r="E513" s="142"/>
+      <c r="C513" s="140"/>
+      <c r="D513" s="140"/>
+      <c r="E513" s="140"/>
       <c r="F513" s="13"/>
-      <c r="G513" s="142"/>
-      <c r="H513" s="142"/>
-      <c r="I513" s="142"/>
-      <c r="J513" s="142"/>
-      <c r="K513" s="142"/>
-      <c r="L513" s="150"/>
-      <c r="M513" s="142"/>
-      <c r="N513" s="142"/>
+      <c r="G513" s="140"/>
+      <c r="H513" s="140"/>
+      <c r="I513" s="140"/>
+      <c r="J513" s="140"/>
+      <c r="K513" s="140"/>
+      <c r="L513" s="148"/>
+      <c r="M513" s="140"/>
+      <c r="N513" s="140"/>
     </row>
     <row r="514" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B514" s="20"/>
@@ -10919,7 +10934,7 @@
       <c r="I514" s="80"/>
       <c r="J514" s="80"/>
       <c r="K514" s="80"/>
-      <c r="L514" s="150"/>
+      <c r="L514" s="148"/>
       <c r="M514" s="80"/>
       <c r="N514" s="80"/>
     </row>
@@ -10930,7 +10945,7 @@
       <c r="C515" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D515" s="124"/>
+      <c r="D515" s="123"/>
       <c r="E515" s="25"/>
       <c r="F515" s="25"/>
       <c r="G515" s="80"/>
@@ -10938,7 +10953,7 @@
       <c r="I515" s="80"/>
       <c r="J515" s="80"/>
       <c r="K515" s="80"/>
-      <c r="L515" s="150"/>
+      <c r="L515" s="148"/>
       <c r="M515" s="80"/>
       <c r="N515" s="80"/>
     </row>
@@ -10953,7 +10968,7 @@
       <c r="I516" s="80"/>
       <c r="J516" s="80"/>
       <c r="K516" s="80"/>
-      <c r="L516" s="150"/>
+      <c r="L516" s="148"/>
       <c r="M516" s="80"/>
       <c r="N516" s="80"/>
     </row>
@@ -10972,7 +10987,7 @@
       <c r="I517" s="80"/>
       <c r="J517" s="80"/>
       <c r="K517" s="80"/>
-      <c r="L517" s="150"/>
+      <c r="L517" s="148"/>
       <c r="M517" s="80"/>
       <c r="N517" s="80"/>
     </row>
@@ -10991,7 +11006,7 @@
       <c r="I518" s="80"/>
       <c r="J518" s="80"/>
       <c r="K518" s="80"/>
-      <c r="L518" s="150"/>
+      <c r="L518" s="148"/>
       <c r="M518" s="80"/>
       <c r="N518" s="80"/>
     </row>
@@ -11008,7 +11023,7 @@
       <c r="I519" s="80"/>
       <c r="J519" s="80"/>
       <c r="K519" s="80"/>
-      <c r="L519" s="150"/>
+      <c r="L519" s="148"/>
       <c r="M519" s="80"/>
       <c r="N519" s="80"/>
     </row>
@@ -11025,7 +11040,7 @@
       <c r="I520" s="80"/>
       <c r="J520" s="80"/>
       <c r="K520" s="80"/>
-      <c r="L520" s="150"/>
+      <c r="L520" s="148"/>
       <c r="M520" s="80"/>
       <c r="N520" s="80"/>
     </row>
@@ -11042,7 +11057,7 @@
       <c r="I521" s="80"/>
       <c r="J521" s="80"/>
       <c r="K521" s="80"/>
-      <c r="L521" s="150"/>
+      <c r="L521" s="148"/>
       <c r="M521" s="80"/>
       <c r="N521" s="80"/>
     </row>
@@ -11061,7 +11076,7 @@
       <c r="I522" s="80"/>
       <c r="J522" s="80"/>
       <c r="K522" s="80"/>
-      <c r="L522" s="150"/>
+      <c r="L522" s="148"/>
       <c r="M522" s="80"/>
       <c r="N522" s="80"/>
     </row>
@@ -11087,24 +11102,24 @@
       <c r="I525" s="19"/>
       <c r="J525" s="80"/>
       <c r="K525" s="80"/>
-      <c r="L525" s="150"/>
+      <c r="L525" s="148"/>
       <c r="M525" s="80"/>
     </row>
     <row r="526" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B526" s="125" t="s">
+      <c r="B526" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="C526" s="126"/>
-      <c r="D526" s="126"/>
-      <c r="E526" s="126"/>
-      <c r="F526" s="126"/>
-      <c r="G526" s="126"/>
-      <c r="H526" s="126"/>
-      <c r="I526" s="126"/>
-      <c r="J526" s="127"/>
-      <c r="K526" s="127"/>
-      <c r="L526" s="127"/>
-      <c r="M526" s="127"/>
+      <c r="C526" s="125"/>
+      <c r="D526" s="125"/>
+      <c r="E526" s="125"/>
+      <c r="F526" s="125"/>
+      <c r="G526" s="125"/>
+      <c r="H526" s="125"/>
+      <c r="I526" s="125"/>
+      <c r="J526" s="126"/>
+      <c r="K526" s="126"/>
+      <c r="L526" s="126"/>
+      <c r="M526" s="126"/>
     </row>
     <row r="527" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B527" s="19"/>
@@ -11117,7 +11132,7 @@
       <c r="I527" s="19"/>
       <c r="J527" s="80"/>
       <c r="K527" s="80"/>
-      <c r="L527" s="150"/>
+      <c r="L527" s="148"/>
       <c r="M527" s="80"/>
     </row>
     <row r="528" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11131,7 +11146,7 @@
       <c r="I528" s="19"/>
       <c r="J528" s="80"/>
       <c r="K528" s="80"/>
-      <c r="L528" s="150"/>
+      <c r="L528" s="148"/>
       <c r="M528" s="80"/>
     </row>
     <row r="529" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11145,7 +11160,7 @@
       <c r="I529" s="19"/>
       <c r="J529" s="80"/>
       <c r="K529" s="80"/>
-      <c r="L529" s="150"/>
+      <c r="L529" s="148"/>
       <c r="M529" s="80"/>
     </row>
     <row r="530" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11158,39 +11173,39 @@
       <c r="I530" s="19"/>
       <c r="J530" s="80"/>
       <c r="K530" s="80"/>
-      <c r="L530" s="150"/>
+      <c r="L530" s="148"/>
       <c r="M530" s="80"/>
     </row>
     <row r="531" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B531" s="19"/>
-      <c r="D531" s="130"/>
-      <c r="E531" s="130"/>
-      <c r="F531" s="130"/>
-      <c r="G531" s="130"/>
-      <c r="H531" s="130"/>
-      <c r="I531" s="130"/>
+      <c r="D531" s="128"/>
+      <c r="E531" s="128"/>
+      <c r="F531" s="128"/>
+      <c r="G531" s="128"/>
+      <c r="H531" s="128"/>
+      <c r="I531" s="128"/>
       <c r="J531" s="80"/>
       <c r="K531" s="80"/>
-      <c r="L531" s="150"/>
+      <c r="L531" s="148"/>
       <c r="M531" s="80"/>
     </row>
     <row r="532" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D532" s="19"/>
       <c r="J532" s="80"/>
       <c r="K532" s="80"/>
-      <c r="L532" s="150"/>
+      <c r="L532" s="148"/>
       <c r="M532" s="80"/>
     </row>
     <row r="533" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="222" t="s">
+      <c r="B533" s="223" t="s">
         <v>246</v>
       </c>
-      <c r="C533" s="222"/>
-      <c r="D533" s="222"/>
-      <c r="E533" s="222"/>
+      <c r="C533" s="223"/>
+      <c r="D533" s="223"/>
+      <c r="E533" s="223"/>
       <c r="J533" s="80"/>
       <c r="K533" s="80"/>
-      <c r="L533" s="150"/>
+      <c r="L533" s="148"/>
       <c r="M533" s="80"/>
     </row>
     <row r="534" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11204,7 +11219,7 @@
       <c r="I534" s="19"/>
       <c r="J534" s="80"/>
       <c r="K534" s="80"/>
-      <c r="L534" s="150"/>
+      <c r="L534" s="148"/>
       <c r="M534" s="80"/>
     </row>
     <row r="535" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11218,12 +11233,12 @@
       <c r="I535" s="19"/>
       <c r="J535" s="80"/>
       <c r="K535" s="80"/>
-      <c r="L535" s="150"/>
+      <c r="L535" s="148"/>
       <c r="M535" s="80"/>
     </row>
     <row r="536" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="130"/>
-      <c r="C536" s="130"/>
+      <c r="B536" s="128"/>
+      <c r="C536" s="128"/>
       <c r="D536" s="19"/>
       <c r="E536" s="19"/>
       <c r="F536" s="19"/>
@@ -11232,7 +11247,7 @@
       <c r="I536" s="19"/>
       <c r="J536" s="80"/>
       <c r="K536" s="80"/>
-      <c r="L536" s="150"/>
+      <c r="L536" s="148"/>
       <c r="M536" s="80"/>
     </row>
     <row r="537" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11248,7 +11263,7 @@
       <c r="I537" s="79"/>
       <c r="J537" s="79"/>
       <c r="K537" s="79"/>
-      <c r="L537" s="149"/>
+      <c r="L537" s="147"/>
       <c r="M537" s="19"/>
     </row>
     <row r="538" spans="2:13" x14ac:dyDescent="0.3">
@@ -11262,39 +11277,39 @@
       <c r="I538" s="79"/>
       <c r="J538" s="79"/>
       <c r="K538" s="79"/>
-      <c r="L538" s="149"/>
+      <c r="L538" s="147"/>
     </row>
     <row r="539" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B539" s="277" t="s">
+      <c r="B539" s="280" t="s">
         <v>248</v>
       </c>
-      <c r="C539" s="277"/>
-      <c r="D539" s="277"/>
-      <c r="E539" s="277"/>
-      <c r="F539" s="277"/>
-      <c r="G539" s="277"/>
-      <c r="H539" s="277"/>
-      <c r="I539" s="277"/>
-      <c r="J539" s="277"/>
-      <c r="K539" s="277"/>
-      <c r="L539" s="277"/>
-      <c r="M539" s="277"/>
+      <c r="C539" s="280"/>
+      <c r="D539" s="280"/>
+      <c r="E539" s="280"/>
+      <c r="F539" s="280"/>
+      <c r="G539" s="280"/>
+      <c r="H539" s="280"/>
+      <c r="I539" s="280"/>
+      <c r="J539" s="280"/>
+      <c r="K539" s="280"/>
+      <c r="L539" s="280"/>
+      <c r="M539" s="280"/>
     </row>
     <row r="540" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="277" t="s">
+      <c r="B540" s="280" t="s">
         <v>271</v>
       </c>
-      <c r="C540" s="277"/>
-      <c r="D540" s="277"/>
-      <c r="E540" s="277"/>
-      <c r="F540" s="277"/>
-      <c r="G540" s="277"/>
-      <c r="H540" s="277"/>
-      <c r="I540" s="277"/>
-      <c r="J540" s="277"/>
-      <c r="K540" s="277"/>
-      <c r="L540" s="277"/>
-      <c r="M540" s="277"/>
+      <c r="C540" s="280"/>
+      <c r="D540" s="280"/>
+      <c r="E540" s="280"/>
+      <c r="F540" s="280"/>
+      <c r="G540" s="280"/>
+      <c r="H540" s="280"/>
+      <c r="I540" s="280"/>
+      <c r="J540" s="280"/>
+      <c r="K540" s="280"/>
+      <c r="L540" s="280"/>
+      <c r="M540" s="280"/>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B541" s="80"/>
@@ -11307,7 +11322,7 @@
       <c r="I541" s="79"/>
       <c r="J541" s="79"/>
       <c r="K541" s="79"/>
-      <c r="L541" s="149"/>
+      <c r="L541" s="147"/>
     </row>
     <row r="542" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B542" s="24" t="s">
@@ -11322,23 +11337,23 @@
       <c r="I542" s="79"/>
       <c r="J542" s="79"/>
       <c r="K542" s="79"/>
-      <c r="L542" s="149"/>
+      <c r="L542" s="147"/>
     </row>
     <row r="543" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B543" s="277" t="s">
+      <c r="B543" s="280" t="s">
         <v>250</v>
       </c>
-      <c r="C543" s="277"/>
-      <c r="D543" s="277"/>
-      <c r="E543" s="277"/>
-      <c r="F543" s="277"/>
-      <c r="G543" s="277"/>
-      <c r="H543" s="277"/>
-      <c r="I543" s="277"/>
-      <c r="J543" s="277"/>
-      <c r="K543" s="277"/>
-      <c r="L543" s="277"/>
-      <c r="M543" s="277"/>
+      <c r="C543" s="280"/>
+      <c r="D543" s="280"/>
+      <c r="E543" s="280"/>
+      <c r="F543" s="280"/>
+      <c r="G543" s="280"/>
+      <c r="H543" s="280"/>
+      <c r="I543" s="280"/>
+      <c r="J543" s="280"/>
+      <c r="K543" s="280"/>
+      <c r="L543" s="280"/>
+      <c r="M543" s="280"/>
     </row>
     <row r="544" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="79"/>
